--- a/用紙管理/06_在庫登録/令和６年在庫一覧1228現在.xlsx
+++ b/用紙管理/06_在庫登録/令和６年在庫一覧1228現在.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\06_在庫登録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA681C6-4EEE-4426-82B3-45BB8911415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A6DC0F-EC59-409B-9F62-FA57EAEC4708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{008265DB-598C-417F-A875-29075EEBD992}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -5511,7 +5511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5534,9 +5534,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -5878,7 +5875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B85EAAC-ED19-4EE6-9497-5F77BA19F7C5}">
   <dimension ref="A1:H511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5887,7 +5884,7 @@
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="3" width="39.25" customWidth="1"/>
     <col min="4" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5932,7 +5929,7 @@
         <v>250</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f>VLOOKUP(C2,ID!B:C,2,FALSE)</f>
         <v>218</v>
       </c>
@@ -5952,7 +5949,7 @@
         <v>125</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>VLOOKUP(C3,ID!B:C,2,FALSE)</f>
         <v>1540</v>
       </c>
@@ -5972,7 +5969,7 @@
         <v>150</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f>VLOOKUP(C4,ID!B:C,2,FALSE)</f>
         <v>1541</v>
       </c>
@@ -5992,7 +5989,7 @@
         <v>175</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>VLOOKUP(C5,ID!B:C,2,FALSE)</f>
         <v>1542</v>
       </c>
@@ -6012,7 +6009,7 @@
         <v>250</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f>VLOOKUP(C6,ID!B:C,2,FALSE)</f>
         <v>997</v>
       </c>
@@ -6032,7 +6029,7 @@
         <v>1800</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>VLOOKUP(C7,ID!B:C,2,FALSE)</f>
         <v>1543</v>
       </c>
@@ -6052,7 +6049,7 @@
         <v>125</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f>VLOOKUP(C8,ID!B:C,2,FALSE)</f>
         <v>1544</v>
       </c>
@@ -6072,7 +6069,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>VLOOKUP(C9,ID!B:C,2,FALSE)</f>
         <v>216</v>
       </c>
@@ -6092,7 +6089,7 @@
         <v>150</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f>VLOOKUP(C10,ID!B:C,2,FALSE)</f>
         <v>221</v>
       </c>
@@ -6113,7 +6110,7 @@
         <v>250</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f>VLOOKUP(C11,ID!B:C,2,FALSE)</f>
         <v>476</v>
       </c>
@@ -6134,7 +6131,7 @@
         <v>75</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f>VLOOKUP(C12,ID!B:C,2,FALSE)</f>
         <v>225</v>
       </c>
@@ -6154,7 +6151,7 @@
         <v>150</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f>VLOOKUP(C13,ID!B:C,2,FALSE)</f>
         <v>1545</v>
       </c>
@@ -6174,7 +6171,7 @@
         <v>150</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f>VLOOKUP(C14,ID!B:C,2,FALSE)</f>
         <v>432</v>
       </c>
@@ -6195,7 +6192,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f>VLOOKUP(C15,ID!B:C,2,FALSE)</f>
         <v>751</v>
       </c>
@@ -6215,7 +6212,7 @@
         <v>1125</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f>VLOOKUP(C16,ID!B:C,2,FALSE)</f>
         <v>387</v>
       </c>
@@ -6236,7 +6233,7 @@
         <v>2200</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f>VLOOKUP(C17,ID!B:C,2,FALSE)</f>
         <v>45</v>
       </c>
@@ -6257,7 +6254,7 @@
         <v>950</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f>VLOOKUP(C18,ID!B:C,2,FALSE)</f>
         <v>58</v>
       </c>
@@ -6278,7 +6275,7 @@
         <v>125</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f>VLOOKUP(C19,ID!B:C,2,FALSE)</f>
         <v>18</v>
       </c>
@@ -6299,7 +6296,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <f>VLOOKUP(C20,ID!B:C,2,FALSE)</f>
         <v>138</v>
       </c>
@@ -6320,7 +6317,7 @@
         <v>1250</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <f>VLOOKUP(C21,ID!B:C,2,FALSE)</f>
         <v>15</v>
       </c>
@@ -6341,7 +6338,7 @@
         <v>600</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <f>VLOOKUP(C22,ID!B:C,2,FALSE)</f>
         <v>370</v>
       </c>
@@ -6362,7 +6359,7 @@
         <v>120</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <f>VLOOKUP(C23,ID!B:C,2,FALSE)</f>
         <v>54</v>
       </c>
@@ -6383,7 +6380,7 @@
         <v>75</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f>VLOOKUP(C24,ID!B:C,2,FALSE)</f>
         <v>725</v>
       </c>
@@ -6403,7 +6400,7 @@
         <v>900</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f>VLOOKUP(C25,ID!B:C,2,FALSE)</f>
         <v>462</v>
       </c>
@@ -6424,7 +6421,7 @@
         <v>500</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f>VLOOKUP(C26,ID!B:C,2,FALSE)</f>
         <v>421</v>
       </c>
@@ -6445,7 +6442,7 @@
         <v>250</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <f>VLOOKUP(C27,ID!B:C,2,FALSE)</f>
         <v>143</v>
       </c>
@@ -6466,7 +6463,7 @@
         <v>875</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <f>VLOOKUP(C28,ID!B:C,2,FALSE)</f>
         <v>687</v>
       </c>
@@ -6487,7 +6484,7 @@
         <v>500</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <f>VLOOKUP(C29,ID!B:C,2,FALSE)</f>
         <v>414</v>
       </c>
@@ -6508,7 +6505,7 @@
         <v>250</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <f>VLOOKUP(C30,ID!B:C,2,FALSE)</f>
         <v>388</v>
       </c>
@@ -6529,7 +6526,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <f>VLOOKUP(C31,ID!B:C,2,FALSE)</f>
         <v>139</v>
       </c>
@@ -6549,7 +6546,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <f>VLOOKUP(C32,ID!B:C,2,FALSE)</f>
         <v>74</v>
       </c>
@@ -6570,7 +6567,7 @@
         <v>100</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <f>VLOOKUP(C33,ID!B:C,2,FALSE)</f>
         <v>177</v>
       </c>
@@ -6591,7 +6588,7 @@
         <v>40</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <f>VLOOKUP(C34,ID!B:C,2,FALSE)</f>
         <v>1290</v>
       </c>
@@ -6611,7 +6608,7 @@
         <v>400</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <f>VLOOKUP(C35,ID!B:C,2,FALSE)</f>
         <v>1546</v>
       </c>
@@ -6632,7 +6629,7 @@
         <v>675</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <f>VLOOKUP(C36,ID!B:C,2,FALSE)</f>
         <v>184</v>
       </c>
@@ -6652,7 +6649,7 @@
         <v>23800</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <f>VLOOKUP(C37,ID!B:C,2,FALSE)</f>
         <v>23</v>
       </c>
@@ -6671,7 +6668,7 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <f>VLOOKUP(C38,ID!B:C,2,FALSE)</f>
         <v>59</v>
       </c>
@@ -6689,7 +6686,7 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <f>VLOOKUP(C39,ID!B:C,2,FALSE)</f>
         <v>21</v>
       </c>
@@ -6707,7 +6704,7 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <f>VLOOKUP(C40,ID!B:C,2,FALSE)</f>
         <v>56</v>
       </c>
@@ -6727,7 +6724,7 @@
         <v>575</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <f>VLOOKUP(C41,ID!B:C,2,FALSE)</f>
         <v>72</v>
       </c>
@@ -6747,7 +6744,7 @@
         <v>750</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <f>VLOOKUP(C42,ID!B:C,2,FALSE)</f>
         <v>229</v>
       </c>
@@ -6768,7 +6765,7 @@
         <v>450</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <f>VLOOKUP(C43,ID!B:C,2,FALSE)</f>
         <v>114</v>
       </c>
@@ -6789,7 +6786,7 @@
         <v>175</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <f>VLOOKUP(C44,ID!B:C,2,FALSE)</f>
         <v>79</v>
       </c>
@@ -6809,7 +6806,7 @@
         <v>90</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <f>VLOOKUP(C45,ID!B:C,2,FALSE)</f>
         <v>1490</v>
       </c>
@@ -6829,7 +6826,7 @@
         <v>125</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <f>VLOOKUP(C46,ID!B:C,2,FALSE)</f>
         <v>1181</v>
       </c>
@@ -6849,7 +6846,7 @@
         <v>1350</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <f>VLOOKUP(C47,ID!B:C,2,FALSE)</f>
         <v>550</v>
       </c>
@@ -6869,7 +6866,7 @@
         <v>75</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <f>VLOOKUP(C48,ID!B:C,2,FALSE)</f>
         <v>60</v>
       </c>
@@ -6889,7 +6886,7 @@
         <v>2500</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <f>VLOOKUP(C49,ID!B:C,2,FALSE)</f>
         <v>1077</v>
       </c>
@@ -6909,7 +6906,7 @@
         <v>1000</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <f>VLOOKUP(C50,ID!B:C,2,FALSE)</f>
         <v>1422</v>
       </c>
@@ -6927,7 +6924,7 @@
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <f>VLOOKUP(C51,ID!B:C,2,FALSE)</f>
         <v>230</v>
       </c>
@@ -6945,7 +6942,7 @@
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="9">
+      <c r="F52" s="8">
         <f>VLOOKUP(C52,ID!B:C,2,FALSE)</f>
         <v>231</v>
       </c>
@@ -6965,7 +6962,7 @@
         <v>450</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="9">
+      <c r="F53" s="8">
         <f>VLOOKUP(C53,ID!B:C,2,FALSE)</f>
         <v>134</v>
       </c>
@@ -6986,7 +6983,7 @@
         <v>525</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <f>VLOOKUP(C54,ID!B:C,2,FALSE)</f>
         <v>588</v>
       </c>
@@ -7006,7 +7003,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <f>VLOOKUP(C55,ID!B:C,2,FALSE)</f>
         <v>541</v>
       </c>
@@ -7026,7 +7023,7 @@
         <v>150</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <f>VLOOKUP(C56,ID!B:C,2,FALSE)</f>
         <v>767</v>
       </c>
@@ -7046,7 +7043,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <f>VLOOKUP(C57,ID!B:C,2,FALSE)</f>
         <v>766</v>
       </c>
@@ -7067,7 +7064,7 @@
         <v>550</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <f>VLOOKUP(C58,ID!B:C,2,FALSE)</f>
         <v>96</v>
       </c>
@@ -7088,7 +7085,7 @@
         <v>250</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="9">
+      <c r="F59" s="8">
         <f>VLOOKUP(C59,ID!B:C,2,FALSE)</f>
         <v>208</v>
       </c>
@@ -7109,7 +7106,7 @@
         <v>250</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <f>VLOOKUP(C60,ID!B:C,2,FALSE)</f>
         <v>232</v>
       </c>
@@ -7130,7 +7127,7 @@
         <v>275</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="9">
+      <c r="F61" s="8">
         <f>VLOOKUP(C61,ID!B:C,2,FALSE)</f>
         <v>233</v>
       </c>
@@ -7150,7 +7147,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <f>VLOOKUP(C62,ID!B:C,2,FALSE)</f>
         <v>1547</v>
       </c>
@@ -7170,7 +7167,7 @@
         <v>245</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <f>VLOOKUP(C63,ID!B:C,2,FALSE)</f>
         <v>1548</v>
       </c>
@@ -7190,7 +7187,7 @@
         <v>250</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <f>VLOOKUP(C64,ID!B:C,2,FALSE)</f>
         <v>1549</v>
       </c>
@@ -7210,7 +7207,7 @@
         <v>200</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="9">
+      <c r="F65" s="8">
         <f>VLOOKUP(C65,ID!B:C,2,FALSE)</f>
         <v>780</v>
       </c>
@@ -7231,7 +7228,7 @@
         <v>250</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <f>VLOOKUP(C66,ID!B:C,2,FALSE)</f>
         <v>782</v>
       </c>
@@ -7252,7 +7249,7 @@
         <v>500</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="9">
+      <c r="F67" s="8">
         <f>VLOOKUP(C67,ID!B:C,2,FALSE)</f>
         <v>412</v>
       </c>
@@ -7272,7 +7269,7 @@
         <v>50</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <f>VLOOKUP(C68,ID!B:C,2,FALSE)</f>
         <v>653</v>
       </c>
@@ -7292,7 +7289,7 @@
         <v>1375</v>
       </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="9">
+      <c r="F69" s="8">
         <f>VLOOKUP(C69,ID!B:C,2,FALSE)</f>
         <v>237</v>
       </c>
@@ -7313,7 +7310,7 @@
         <v>90</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="9">
+      <c r="F70" s="8">
         <f>VLOOKUP(C70,ID!B:C,2,FALSE)</f>
         <v>1550</v>
       </c>
@@ -7333,7 +7330,7 @@
         <v>500</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="9">
+      <c r="F71" s="8">
         <f>VLOOKUP(C71,ID!B:C,2,FALSE)</f>
         <v>1551</v>
       </c>
@@ -7353,7 +7350,7 @@
         <v>490</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="9">
+      <c r="F72" s="8">
         <f>VLOOKUP(C72,ID!B:C,2,FALSE)</f>
         <v>1552</v>
       </c>
@@ -7373,7 +7370,7 @@
         <v>2000</v>
       </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="9">
+      <c r="F73" s="8">
         <f>VLOOKUP(C73,ID!B:C,2,FALSE)</f>
         <v>1553</v>
       </c>
@@ -7393,7 +7390,7 @@
         <v>135</v>
       </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="9">
+      <c r="F74" s="8">
         <f>VLOOKUP(C74,ID!B:C,2,FALSE)</f>
         <v>239</v>
       </c>
@@ -7413,7 +7410,7 @@
         <v>28</v>
       </c>
       <c r="E75" s="5"/>
-      <c r="F75" s="9">
+      <c r="F75" s="8">
         <f>VLOOKUP(C75,ID!B:C,2,FALSE)</f>
         <v>238</v>
       </c>
@@ -7433,7 +7430,7 @@
         <v>250</v>
       </c>
       <c r="E76" s="5"/>
-      <c r="F76" s="9">
+      <c r="F76" s="8">
         <f>VLOOKUP(C76,ID!B:C,2,FALSE)</f>
         <v>30</v>
       </c>
@@ -7454,7 +7451,7 @@
         <v>350</v>
       </c>
       <c r="E77" s="5"/>
-      <c r="F77" s="9">
+      <c r="F77" s="8">
         <f>VLOOKUP(C77,ID!B:C,2,FALSE)</f>
         <v>125</v>
       </c>
@@ -7475,7 +7472,7 @@
         <v>400</v>
       </c>
       <c r="E78" s="5"/>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <f>VLOOKUP(C78,ID!B:C,2,FALSE)</f>
         <v>201</v>
       </c>
@@ -7496,7 +7493,7 @@
         <v>250</v>
       </c>
       <c r="E79" s="5"/>
-      <c r="F79" s="9">
+      <c r="F79" s="8">
         <f>VLOOKUP(C79,ID!B:C,2,FALSE)</f>
         <v>374</v>
       </c>
@@ -7516,7 +7513,7 @@
         <v>250</v>
       </c>
       <c r="E80" s="5"/>
-      <c r="F80" s="9">
+      <c r="F80" s="8">
         <f>VLOOKUP(C80,ID!B:C,2,FALSE)</f>
         <v>1325</v>
       </c>
@@ -7536,7 +7533,7 @@
         <v>360</v>
       </c>
       <c r="E81" s="5"/>
-      <c r="F81" s="9">
+      <c r="F81" s="8">
         <f>VLOOKUP(C81,ID!B:C,2,FALSE)</f>
         <v>241</v>
       </c>
@@ -7557,7 +7554,7 @@
         <v>1150</v>
       </c>
       <c r="E82" s="5"/>
-      <c r="F82" s="9">
+      <c r="F82" s="8">
         <f>VLOOKUP(C82,ID!B:C,2,FALSE)</f>
         <v>743</v>
       </c>
@@ -7578,7 +7575,7 @@
         <v>12300</v>
       </c>
       <c r="E83" s="5"/>
-      <c r="F83" s="9">
+      <c r="F83" s="8">
         <f>VLOOKUP(C83,ID!B:C,2,FALSE)</f>
         <v>99</v>
       </c>
@@ -7598,7 +7595,7 @@
         <v>50</v>
       </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="9">
+      <c r="F84" s="8">
         <f>VLOOKUP(C84,ID!B:C,2,FALSE)</f>
         <v>1554</v>
       </c>
@@ -7618,7 +7615,7 @@
         <v>700</v>
       </c>
       <c r="E85" s="5"/>
-      <c r="F85" s="9">
+      <c r="F85" s="8">
         <f>VLOOKUP(C85,ID!B:C,2,FALSE)</f>
         <v>145</v>
       </c>
@@ -7639,7 +7636,7 @@
         <v>50</v>
       </c>
       <c r="E86" s="5"/>
-      <c r="F86" s="9">
+      <c r="F86" s="8">
         <f>VLOOKUP(C86,ID!B:C,2,FALSE)</f>
         <v>116</v>
       </c>
@@ -7659,7 +7656,7 @@
         <v>375</v>
       </c>
       <c r="E87" s="5"/>
-      <c r="F87" s="9">
+      <c r="F87" s="8">
         <f>VLOOKUP(C87,ID!B:C,2,FALSE)</f>
         <v>6</v>
       </c>
@@ -7680,7 +7677,7 @@
         <v>500</v>
       </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="9">
+      <c r="F88" s="8">
         <f>VLOOKUP(C88,ID!B:C,2,FALSE)</f>
         <v>247</v>
       </c>
@@ -7701,7 +7698,7 @@
         <v>35</v>
       </c>
       <c r="E89" s="5"/>
-      <c r="F89" s="9">
+      <c r="F89" s="8">
         <f>VLOOKUP(C89,ID!B:C,2,FALSE)</f>
         <v>90</v>
       </c>
@@ -7719,7 +7716,7 @@
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="9">
+      <c r="F90" s="8">
         <f>VLOOKUP(C90,ID!B:C,2,FALSE)</f>
         <v>88</v>
       </c>
@@ -7739,7 +7736,7 @@
         <v>900</v>
       </c>
       <c r="E91" s="5"/>
-      <c r="F91" s="9">
+      <c r="F91" s="8">
         <f>VLOOKUP(C91,ID!B:C,2,FALSE)</f>
         <v>39</v>
       </c>
@@ -7760,7 +7757,7 @@
         <v>1350</v>
       </c>
       <c r="E92" s="5"/>
-      <c r="F92" s="9">
+      <c r="F92" s="8">
         <f>VLOOKUP(C92,ID!B:C,2,FALSE)</f>
         <v>46</v>
       </c>
@@ -7781,7 +7778,7 @@
         <v>260</v>
       </c>
       <c r="E93" s="5"/>
-      <c r="F93" s="9">
+      <c r="F93" s="8">
         <f>VLOOKUP(C93,ID!B:C,2,FALSE)</f>
         <v>147</v>
       </c>
@@ -7801,7 +7798,7 @@
         <v>525</v>
       </c>
       <c r="E94" s="5"/>
-      <c r="F94" s="9">
+      <c r="F94" s="8">
         <f>VLOOKUP(C94,ID!B:C,2,FALSE)</f>
         <v>130</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>1350</v>
       </c>
       <c r="E95" s="5"/>
-      <c r="F95" s="9">
+      <c r="F95" s="8">
         <f>VLOOKUP(C95,ID!B:C,2,FALSE)</f>
         <v>39</v>
       </c>
@@ -7842,7 +7839,7 @@
         <v>100</v>
       </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="9">
+      <c r="F96" s="8">
         <f>VLOOKUP(C96,ID!B:C,2,FALSE)</f>
         <v>551</v>
       </c>
@@ -7863,7 +7860,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="5"/>
-      <c r="F97" s="9">
+      <c r="F97" s="8">
         <f>VLOOKUP(C97,ID!B:C,2,FALSE)</f>
         <v>76</v>
       </c>
@@ -7883,7 +7880,7 @@
         <v>625</v>
       </c>
       <c r="E98" s="5"/>
-      <c r="F98" s="9">
+      <c r="F98" s="8">
         <f>VLOOKUP(C98,ID!B:C,2,FALSE)</f>
         <v>242</v>
       </c>
@@ -7904,7 +7901,7 @@
         <v>250</v>
       </c>
       <c r="E99" s="5"/>
-      <c r="F99" s="9">
+      <c r="F99" s="8">
         <f>VLOOKUP(C99,ID!B:C,2,FALSE)</f>
         <v>623</v>
       </c>
@@ -7925,7 +7922,7 @@
         <v>25</v>
       </c>
       <c r="E100" s="5"/>
-      <c r="F100" s="9">
+      <c r="F100" s="8">
         <f>VLOOKUP(C100,ID!B:C,2,FALSE)</f>
         <v>198</v>
       </c>
@@ -7943,7 +7940,7 @@
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
-      <c r="F101" s="9">
+      <c r="F101" s="8">
         <f>VLOOKUP(C101,ID!B:C,2,FALSE)</f>
         <v>1555</v>
       </c>
@@ -7963,7 +7960,7 @@
         <v>250</v>
       </c>
       <c r="E102" s="5"/>
-      <c r="F102" s="9">
+      <c r="F102" s="8">
         <f>VLOOKUP(C102,ID!B:C,2,FALSE)</f>
         <v>1067</v>
       </c>
@@ -7984,7 +7981,7 @@
         <v>400</v>
       </c>
       <c r="E103" s="5"/>
-      <c r="F103" s="9">
+      <c r="F103" s="8">
         <f>VLOOKUP(C103,ID!B:C,2,FALSE)</f>
         <v>110</v>
       </c>
@@ -8005,7 +8002,7 @@
         <v>550</v>
       </c>
       <c r="E104" s="5"/>
-      <c r="F104" s="9">
+      <c r="F104" s="8">
         <f>VLOOKUP(C104,ID!B:C,2,FALSE)</f>
         <v>109</v>
       </c>
@@ -8026,7 +8023,7 @@
         <v>100</v>
       </c>
       <c r="E105" s="5"/>
-      <c r="F105" s="9">
+      <c r="F105" s="8">
         <f>VLOOKUP(C105,ID!B:C,2,FALSE)</f>
         <v>913</v>
       </c>
@@ -8046,7 +8043,7 @@
         <v>250</v>
       </c>
       <c r="E106" s="5"/>
-      <c r="F106" s="9">
+      <c r="F106" s="8">
         <f>VLOOKUP(C106,ID!B:C,2,FALSE)</f>
         <v>576</v>
       </c>
@@ -8067,7 +8064,7 @@
         <v>80</v>
       </c>
       <c r="E107" s="5"/>
-      <c r="F107" s="9">
+      <c r="F107" s="8">
         <f>VLOOKUP(C107,ID!B:C,2,FALSE)</f>
         <v>778</v>
       </c>
@@ -8088,7 +8085,7 @@
         <v>900</v>
       </c>
       <c r="E108" s="5"/>
-      <c r="F108" s="9">
+      <c r="F108" s="8">
         <f>VLOOKUP(C108,ID!B:C,2,FALSE)</f>
         <v>939</v>
       </c>
@@ -8108,7 +8105,7 @@
         <v>120</v>
       </c>
       <c r="E109" s="5"/>
-      <c r="F109" s="9">
+      <c r="F109" s="8">
         <f>VLOOKUP(C109,ID!B:C,2,FALSE)</f>
         <v>422</v>
       </c>
@@ -8128,7 +8125,7 @@
         <v>874</v>
       </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="9">
+      <c r="F110" s="8">
         <f>VLOOKUP(C110,ID!B:C,2,FALSE)</f>
         <v>250</v>
       </c>
@@ -8149,7 +8146,7 @@
         <v>1000</v>
       </c>
       <c r="E111" s="5"/>
-      <c r="F111" s="9">
+      <c r="F111" s="8">
         <f>VLOOKUP(C111,ID!B:C,2,FALSE)</f>
         <v>252</v>
       </c>
@@ -8170,7 +8167,7 @@
         <v>1490</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="9">
+      <c r="F112" s="8">
         <f>VLOOKUP(C112,ID!B:C,2,FALSE)</f>
         <v>41</v>
       </c>
@@ -8191,7 +8188,7 @@
         <v>9830</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="F113" s="9">
+      <c r="F113" s="8">
         <f>VLOOKUP(C113,ID!B:C,2,FALSE)</f>
         <v>705</v>
       </c>
@@ -8212,7 +8209,7 @@
         <v>170</v>
       </c>
       <c r="E114" s="5"/>
-      <c r="F114" s="9">
+      <c r="F114" s="8">
         <f>VLOOKUP(C114,ID!B:C,2,FALSE)</f>
         <v>696</v>
       </c>
@@ -8233,7 +8230,7 @@
         <v>1875</v>
       </c>
       <c r="E115" s="5"/>
-      <c r="F115" s="9">
+      <c r="F115" s="8">
         <f>VLOOKUP(C115,ID!B:C,2,FALSE)</f>
         <v>78</v>
       </c>
@@ -8254,7 +8251,7 @@
         <v>200</v>
       </c>
       <c r="E116" s="5"/>
-      <c r="F116" s="9">
+      <c r="F116" s="8">
         <f>VLOOKUP(C116,ID!B:C,2,FALSE)</f>
         <v>461</v>
       </c>
@@ -8274,7 +8271,7 @@
         <v>50</v>
       </c>
       <c r="E117" s="5"/>
-      <c r="F117" s="9">
+      <c r="F117" s="8">
         <f>VLOOKUP(C117,ID!B:C,2,FALSE)</f>
         <v>154</v>
       </c>
@@ -8295,7 +8292,7 @@
         <v>95</v>
       </c>
       <c r="E118" s="5"/>
-      <c r="F118" s="9">
+      <c r="F118" s="8">
         <f>VLOOKUP(C118,ID!B:C,2,FALSE)</f>
         <v>257</v>
       </c>
@@ -8316,7 +8313,7 @@
         <v>225</v>
       </c>
       <c r="E119" s="5"/>
-      <c r="F119" s="9">
+      <c r="F119" s="8">
         <f>VLOOKUP(C119,ID!B:C,2,FALSE)</f>
         <v>258</v>
       </c>
@@ -8335,7 +8332,7 @@
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
-      <c r="F120" s="9">
+      <c r="F120" s="8">
         <f>VLOOKUP(C120,ID!B:C,2,FALSE)</f>
         <v>437</v>
       </c>
@@ -8353,7 +8350,7 @@
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="9">
+      <c r="F121" s="8">
         <f>VLOOKUP(C121,ID!B:C,2,FALSE)</f>
         <v>365</v>
       </c>
@@ -8373,7 +8370,7 @@
         <v>35</v>
       </c>
       <c r="E122" s="5"/>
-      <c r="F122" s="9">
+      <c r="F122" s="8">
         <f>VLOOKUP(C122,ID!B:C,2,FALSE)</f>
         <v>1050</v>
       </c>
@@ -8393,7 +8390,7 @@
         <v>200</v>
       </c>
       <c r="E123" s="5"/>
-      <c r="F123" s="9">
+      <c r="F123" s="8">
         <f>VLOOKUP(C123,ID!B:C,2,FALSE)</f>
         <v>699</v>
       </c>
@@ -8414,7 +8411,7 @@
         <v>149</v>
       </c>
       <c r="E124" s="5"/>
-      <c r="F124" s="9">
+      <c r="F124" s="8">
         <f>VLOOKUP(C124,ID!B:C,2,FALSE)</f>
         <v>697</v>
       </c>
@@ -8434,7 +8431,7 @@
         <v>45</v>
       </c>
       <c r="E125" s="5"/>
-      <c r="F125" s="9">
+      <c r="F125" s="8">
         <f>VLOOKUP(C125,ID!B:C,2,FALSE)</f>
         <v>698</v>
       </c>
@@ -8454,7 +8451,7 @@
         <v>25</v>
       </c>
       <c r="E126" s="5"/>
-      <c r="F126" s="9">
+      <c r="F126" s="8">
         <f>VLOOKUP(C126,ID!B:C,2,FALSE)</f>
         <v>174</v>
       </c>
@@ -8474,7 +8471,7 @@
         <v>100</v>
       </c>
       <c r="E127" s="5"/>
-      <c r="F127" s="9">
+      <c r="F127" s="8">
         <f>VLOOKUP(C127,ID!B:C,2,FALSE)</f>
         <v>98</v>
       </c>
@@ -8494,7 +8491,7 @@
         <v>70</v>
       </c>
       <c r="E128" s="5"/>
-      <c r="F128" s="9">
+      <c r="F128" s="8">
         <f>VLOOKUP(C128,ID!B:C,2,FALSE)</f>
         <v>118</v>
       </c>
@@ -8515,7 +8512,7 @@
         <v>8</v>
       </c>
       <c r="E129" s="5"/>
-      <c r="F129" s="9">
+      <c r="F129" s="8">
         <f>VLOOKUP(C129,ID!B:C,2,FALSE)</f>
         <v>594</v>
       </c>
@@ -8535,7 +8532,7 @@
         <v>50</v>
       </c>
       <c r="E130" s="5"/>
-      <c r="F130" s="9">
+      <c r="F130" s="8">
         <f>VLOOKUP(C130,ID!B:C,2,FALSE)</f>
         <v>1061</v>
       </c>
@@ -8555,7 +8552,7 @@
         <v>100</v>
       </c>
       <c r="E131" s="5"/>
-      <c r="F131" s="9">
+      <c r="F131" s="8">
         <f>VLOOKUP(C131,ID!B:C,2,FALSE)</f>
         <v>1270</v>
       </c>
@@ -8575,7 +8572,7 @@
         <v>22</v>
       </c>
       <c r="E132" s="5"/>
-      <c r="F132" s="9">
+      <c r="F132" s="8">
         <f>VLOOKUP(C132,ID!B:C,2,FALSE)</f>
         <v>254</v>
       </c>
@@ -8595,7 +8592,7 @@
         <v>25</v>
       </c>
       <c r="E133" s="5"/>
-      <c r="F133" s="9">
+      <c r="F133" s="8">
         <f>VLOOKUP(C133,ID!B:C,2,FALSE)</f>
         <v>783</v>
       </c>
@@ -8615,7 +8612,7 @@
         <v>70</v>
       </c>
       <c r="E134" s="5"/>
-      <c r="F134" s="9">
+      <c r="F134" s="8">
         <f>VLOOKUP(C134,ID!B:C,2,FALSE)</f>
         <v>460</v>
       </c>
@@ -8635,7 +8632,7 @@
         <v>310</v>
       </c>
       <c r="E135" s="5"/>
-      <c r="F135" s="9">
+      <c r="F135" s="8">
         <f>VLOOKUP(C135,ID!B:C,2,FALSE)</f>
         <v>28</v>
       </c>
@@ -8655,7 +8652,7 @@
         <v>125</v>
       </c>
       <c r="E136" s="5"/>
-      <c r="F136" s="9">
+      <c r="F136" s="8">
         <f>VLOOKUP(C136,ID!B:C,2,FALSE)</f>
         <v>255</v>
       </c>
@@ -8676,7 +8673,7 @@
         <v>125</v>
       </c>
       <c r="E137" s="5"/>
-      <c r="F137" s="9">
+      <c r="F137" s="8">
         <f>VLOOKUP(C137,ID!B:C,2,FALSE)</f>
         <v>75</v>
       </c>
@@ -8697,7 +8694,7 @@
         <v>125</v>
       </c>
       <c r="E138" s="5"/>
-      <c r="F138" s="9">
+      <c r="F138" s="8">
         <f>VLOOKUP(C138,ID!B:C,2,FALSE)</f>
         <v>117</v>
       </c>
@@ -8717,7 +8714,7 @@
         <v>125</v>
       </c>
       <c r="E139" s="5"/>
-      <c r="F139" s="9">
+      <c r="F139" s="8">
         <f>VLOOKUP(C139,ID!B:C,2,FALSE)</f>
         <v>1024</v>
       </c>
@@ -8737,7 +8734,7 @@
         <v>22</v>
       </c>
       <c r="E140" s="5"/>
-      <c r="F140" s="9">
+      <c r="F140" s="8">
         <f>VLOOKUP(C140,ID!B:C,2,FALSE)</f>
         <v>795</v>
       </c>
@@ -8755,7 +8752,7 @@
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="9">
+      <c r="F141" s="8">
         <f>VLOOKUP(C141,ID!B:C,2,FALSE)</f>
         <v>562</v>
       </c>
@@ -8775,7 +8772,7 @@
         <v>3000</v>
       </c>
       <c r="E142" s="5"/>
-      <c r="F142" s="9">
+      <c r="F142" s="8">
         <f>VLOOKUP(C142,ID!B:C,2,FALSE)</f>
         <v>665</v>
       </c>
@@ -8796,7 +8793,7 @@
         <v>1000</v>
       </c>
       <c r="E143" s="5"/>
-      <c r="F143" s="9">
+      <c r="F143" s="8">
         <f>VLOOKUP(C143,ID!B:C,2,FALSE)</f>
         <v>1556</v>
       </c>
@@ -8816,7 +8813,7 @@
         <v>1250</v>
       </c>
       <c r="E144" s="5"/>
-      <c r="F144" s="9">
+      <c r="F144" s="8">
         <f>VLOOKUP(C144,ID!B:C,2,FALSE)</f>
         <v>418</v>
       </c>
@@ -8836,7 +8833,7 @@
         <v>4500</v>
       </c>
       <c r="E145" s="5"/>
-      <c r="F145" s="9">
+      <c r="F145" s="8">
         <f>VLOOKUP(C145,ID!B:C,2,FALSE)</f>
         <v>744</v>
       </c>
@@ -8856,7 +8853,7 @@
         <v>4200</v>
       </c>
       <c r="E146" s="5"/>
-      <c r="F146" s="9">
+      <c r="F146" s="8">
         <f>VLOOKUP(C146,ID!B:C,2,FALSE)</f>
         <v>400</v>
       </c>
@@ -8877,7 +8874,7 @@
         <v>1700</v>
       </c>
       <c r="E147" s="5"/>
-      <c r="F147" s="9">
+      <c r="F147" s="8">
         <f>VLOOKUP(C147,ID!B:C,2,FALSE)</f>
         <v>1458</v>
       </c>
@@ -8897,7 +8894,7 @@
         <v>550</v>
       </c>
       <c r="E148" s="5"/>
-      <c r="F148" s="9">
+      <c r="F148" s="8">
         <f>VLOOKUP(C148,ID!B:C,2,FALSE)</f>
         <v>1331</v>
       </c>
@@ -8917,7 +8914,7 @@
         <v>945</v>
       </c>
       <c r="E149" s="5"/>
-      <c r="F149" s="9">
+      <c r="F149" s="8">
         <f>VLOOKUP(C149,ID!B:C,2,FALSE)</f>
         <v>1510</v>
       </c>
@@ -8937,7 +8934,7 @@
         <v>1150</v>
       </c>
       <c r="E150" s="5"/>
-      <c r="F150" s="9">
+      <c r="F150" s="8">
         <f>VLOOKUP(C150,ID!B:C,2,FALSE)</f>
         <v>415</v>
       </c>
@@ -8957,7 +8954,7 @@
         <v>750</v>
       </c>
       <c r="E151" s="5"/>
-      <c r="F151" s="9">
+      <c r="F151" s="8">
         <f>VLOOKUP(C151,ID!B:C,2,FALSE)</f>
         <v>1557</v>
       </c>
@@ -8977,7 +8974,7 @@
         <v>500</v>
       </c>
       <c r="E152" s="5"/>
-      <c r="F152" s="9">
+      <c r="F152" s="8">
         <f>VLOOKUP(C152,ID!B:C,2,FALSE)</f>
         <v>741</v>
       </c>
@@ -8997,7 +8994,7 @@
         <v>1500</v>
       </c>
       <c r="E153" s="5"/>
-      <c r="F153" s="9">
+      <c r="F153" s="8">
         <f>VLOOKUP(C153,ID!B:C,2,FALSE)</f>
         <v>1558</v>
       </c>
@@ -9017,7 +9014,7 @@
         <v>500</v>
       </c>
       <c r="E154" s="5"/>
-      <c r="F154" s="9">
+      <c r="F154" s="8">
         <f>VLOOKUP(C154,ID!B:C,2,FALSE)</f>
         <v>1559</v>
       </c>
@@ -9037,7 +9034,7 @@
         <v>250</v>
       </c>
       <c r="E155" s="5"/>
-      <c r="F155" s="9">
+      <c r="F155" s="8">
         <f>VLOOKUP(C155,ID!B:C,2,FALSE)</f>
         <v>263</v>
       </c>
@@ -9058,7 +9055,7 @@
         <v>525</v>
       </c>
       <c r="E156" s="5"/>
-      <c r="F156" s="9">
+      <c r="F156" s="8">
         <f>VLOOKUP(C156,ID!B:C,2,FALSE)</f>
         <v>264</v>
       </c>
@@ -9079,7 +9076,7 @@
         <v>1000</v>
       </c>
       <c r="E157" s="5"/>
-      <c r="F157" s="9">
+      <c r="F157" s="8">
         <f>VLOOKUP(C157,ID!B:C,2,FALSE)</f>
         <v>1189</v>
       </c>
@@ -9100,7 +9097,7 @@
         <v>720</v>
       </c>
       <c r="E158" s="5"/>
-      <c r="F158" s="9">
+      <c r="F158" s="8">
         <f>VLOOKUP(C158,ID!B:C,2,FALSE)</f>
         <v>936</v>
       </c>
@@ -9121,7 +9118,7 @@
         <v>675</v>
       </c>
       <c r="E159" s="5"/>
-      <c r="F159" s="9">
+      <c r="F159" s="8">
         <f>VLOOKUP(C159,ID!B:C,2,FALSE)</f>
         <v>265</v>
       </c>
@@ -9142,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="E160" s="5"/>
-      <c r="F160" s="9">
+      <c r="F160" s="8">
         <f>VLOOKUP(C160,ID!B:C,2,FALSE)</f>
         <v>1123</v>
       </c>
@@ -9163,7 +9160,7 @@
         <v>550</v>
       </c>
       <c r="E161" s="5"/>
-      <c r="F161" s="9">
+      <c r="F161" s="8">
         <f>VLOOKUP(C161,ID!B:C,2,FALSE)</f>
         <v>266</v>
       </c>
@@ -9184,7 +9181,7 @@
         <v>575</v>
       </c>
       <c r="E162" s="5"/>
-      <c r="F162" s="9">
+      <c r="F162" s="8">
         <f>VLOOKUP(C162,ID!B:C,2,FALSE)</f>
         <v>167</v>
       </c>
@@ -9205,7 +9202,7 @@
         <v>500</v>
       </c>
       <c r="E163" s="5"/>
-      <c r="F163" s="9">
+      <c r="F163" s="8">
         <f>VLOOKUP(C163,ID!B:C,2,FALSE)</f>
         <v>1125</v>
       </c>
@@ -9225,7 +9222,7 @@
         <v>1100</v>
       </c>
       <c r="E164" s="5"/>
-      <c r="F164" s="9">
+      <c r="F164" s="8">
         <f>VLOOKUP(C164,ID!B:C,2,FALSE)</f>
         <v>610</v>
       </c>
@@ -9245,7 +9242,7 @@
         <v>525</v>
       </c>
       <c r="E165" s="5"/>
-      <c r="F165" s="9">
+      <c r="F165" s="8">
         <f>VLOOKUP(C165,ID!B:C,2,FALSE)</f>
         <v>832</v>
       </c>
@@ -9266,7 +9263,7 @@
         <v>1050</v>
       </c>
       <c r="E166" s="5"/>
-      <c r="F166" s="9">
+      <c r="F166" s="8">
         <f>VLOOKUP(C166,ID!B:C,2,FALSE)</f>
         <v>269</v>
       </c>
@@ -9287,7 +9284,7 @@
         <v>775</v>
       </c>
       <c r="E167" s="5"/>
-      <c r="F167" s="9">
+      <c r="F167" s="8">
         <f>VLOOKUP(C167,ID!B:C,2,FALSE)</f>
         <v>268</v>
       </c>
@@ -9307,7 +9304,7 @@
         <v>1000</v>
       </c>
       <c r="E168" s="5"/>
-      <c r="F168" s="9">
+      <c r="F168" s="8">
         <f>VLOOKUP(C168,ID!B:C,2,FALSE)</f>
         <v>51</v>
       </c>
@@ -9328,7 +9325,7 @@
         <v>240</v>
       </c>
       <c r="E169" s="5"/>
-      <c r="F169" s="9">
+      <c r="F169" s="8">
         <f>VLOOKUP(C169,ID!B:C,2,FALSE)</f>
         <v>86</v>
       </c>
@@ -9348,7 +9345,7 @@
         <v>500</v>
       </c>
       <c r="E170" s="5"/>
-      <c r="F170" s="9">
+      <c r="F170" s="8">
         <f>VLOOKUP(C170,ID!B:C,2,FALSE)</f>
         <v>1560</v>
       </c>
@@ -9369,7 +9366,7 @@
         <v>500</v>
       </c>
       <c r="E171" s="5"/>
-      <c r="F171" s="9">
+      <c r="F171" s="8">
         <f>VLOOKUP(C171,ID!B:C,2,FALSE)</f>
         <v>26</v>
       </c>
@@ -9390,7 +9387,7 @@
         <v>650</v>
       </c>
       <c r="E172" s="5"/>
-      <c r="F172" s="9">
+      <c r="F172" s="8">
         <f>VLOOKUP(C172,ID!B:C,2,FALSE)</f>
         <v>20</v>
       </c>
@@ -9411,7 +9408,7 @@
         <v>240</v>
       </c>
       <c r="E173" s="5"/>
-      <c r="F173" s="9">
+      <c r="F173" s="8">
         <f>VLOOKUP(C173,ID!B:C,2,FALSE)</f>
         <v>31</v>
       </c>
@@ -9431,7 +9428,7 @@
         <v>250</v>
       </c>
       <c r="E174" s="5"/>
-      <c r="F174" s="9">
+      <c r="F174" s="8">
         <f>VLOOKUP(C174,ID!B:C,2,FALSE)</f>
         <v>84</v>
       </c>
@@ -9452,7 +9449,7 @@
         <v>750</v>
       </c>
       <c r="E175" s="5"/>
-      <c r="F175" s="9">
+      <c r="F175" s="8">
         <f>VLOOKUP(C175,ID!B:C,2,FALSE)</f>
         <v>485</v>
       </c>
@@ -9472,7 +9469,7 @@
         <v>675</v>
       </c>
       <c r="E176" s="5"/>
-      <c r="F176" s="9">
+      <c r="F176" s="8">
         <f>VLOOKUP(C176,ID!B:C,2,FALSE)</f>
         <v>644</v>
       </c>
@@ -9492,7 +9489,7 @@
         <v>200</v>
       </c>
       <c r="E177" s="5"/>
-      <c r="F177" s="9">
+      <c r="F177" s="8">
         <f>VLOOKUP(C177,ID!B:C,2,FALSE)</f>
         <v>270</v>
       </c>
@@ -9512,7 +9509,7 @@
         <v>500</v>
       </c>
       <c r="E178" s="5"/>
-      <c r="F178" s="9">
+      <c r="F178" s="8">
         <f>VLOOKUP(C178,ID!B:C,2,FALSE)</f>
         <v>1561</v>
       </c>
@@ -9532,7 +9529,7 @@
         <v>1000</v>
       </c>
       <c r="E179" s="5"/>
-      <c r="F179" s="9">
+      <c r="F179" s="8">
         <f>VLOOKUP(C179,ID!B:C,2,FALSE)</f>
         <v>1562</v>
       </c>
@@ -9552,7 +9549,7 @@
         <v>540</v>
       </c>
       <c r="E180" s="6"/>
-      <c r="F180" s="9">
+      <c r="F180" s="8">
         <f>VLOOKUP(C180,ID!B:C,2,FALSE)</f>
         <v>17</v>
       </c>
@@ -9573,7 +9570,7 @@
         <v>40</v>
       </c>
       <c r="E181" s="6"/>
-      <c r="F181" s="9">
+      <c r="F181" s="8">
         <f>VLOOKUP(C181,ID!B:C,2,FALSE)</f>
         <v>1563</v>
       </c>
@@ -9593,7 +9590,7 @@
         <v>100</v>
       </c>
       <c r="E182" s="5"/>
-      <c r="F182" s="9">
+      <c r="F182" s="8">
         <f>VLOOKUP(C182,ID!B:C,2,FALSE)</f>
         <v>1564</v>
       </c>
@@ -9613,7 +9610,7 @@
         <v>15</v>
       </c>
       <c r="E183" s="5"/>
-      <c r="F183" s="9">
+      <c r="F183" s="8">
         <f>VLOOKUP(C183,ID!B:C,2,FALSE)</f>
         <v>1471</v>
       </c>
@@ -9633,7 +9630,7 @@
         <v>65</v>
       </c>
       <c r="E184" s="5"/>
-      <c r="F184" s="9">
+      <c r="F184" s="8">
         <f>VLOOKUP(C184,ID!B:C,2,FALSE)</f>
         <v>1313</v>
       </c>
@@ -9653,7 +9650,7 @@
         <v>15</v>
       </c>
       <c r="E185" s="5"/>
-      <c r="F185" s="9">
+      <c r="F185" s="8">
         <f>VLOOKUP(C185,ID!B:C,2,FALSE)</f>
         <v>727</v>
       </c>
@@ -9673,7 +9670,7 @@
         <v>10</v>
       </c>
       <c r="E186" s="5"/>
-      <c r="F186" s="9">
+      <c r="F186" s="8">
         <f>VLOOKUP(C186,ID!B:C,2,FALSE)</f>
         <v>726</v>
       </c>
@@ -9693,7 +9690,7 @@
         <v>12</v>
       </c>
       <c r="E187" s="5"/>
-      <c r="F187" s="9">
+      <c r="F187" s="8">
         <f>VLOOKUP(C187,ID!B:C,2,FALSE)</f>
         <v>728</v>
       </c>
@@ -9713,7 +9710,7 @@
         <v>145</v>
       </c>
       <c r="E188" s="5"/>
-      <c r="F188" s="9">
+      <c r="F188" s="8">
         <f>VLOOKUP(C188,ID!B:C,2,FALSE)</f>
         <v>675</v>
       </c>
@@ -9733,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="5"/>
-      <c r="F189" s="9">
+      <c r="F189" s="8">
         <f>VLOOKUP(C189,ID!B:C,2,FALSE)</f>
         <v>1117</v>
       </c>
@@ -9753,7 +9750,7 @@
         <v>5</v>
       </c>
       <c r="E190" s="5"/>
-      <c r="F190" s="9">
+      <c r="F190" s="8">
         <f>VLOOKUP(C190,ID!B:C,2,FALSE)</f>
         <v>871</v>
       </c>
@@ -9773,7 +9770,7 @@
         <v>10</v>
       </c>
       <c r="E191" s="5"/>
-      <c r="F191" s="9">
+      <c r="F191" s="8">
         <f>VLOOKUP(C191,ID!B:C,2,FALSE)</f>
         <v>857</v>
       </c>
@@ -9793,7 +9790,7 @@
         <v>5</v>
       </c>
       <c r="E192" s="5"/>
-      <c r="F192" s="9">
+      <c r="F192" s="8">
         <f>VLOOKUP(C192,ID!B:C,2,FALSE)</f>
         <v>729</v>
       </c>
@@ -9813,7 +9810,7 @@
         <v>5</v>
       </c>
       <c r="E193" s="5"/>
-      <c r="F193" s="9">
+      <c r="F193" s="8">
         <f>VLOOKUP(C193,ID!B:C,2,FALSE)</f>
         <v>1565</v>
       </c>
@@ -9833,7 +9830,7 @@
         <v>169</v>
       </c>
       <c r="E194" s="5"/>
-      <c r="F194" s="9">
+      <c r="F194" s="8">
         <f>VLOOKUP(C194,ID!B:C,2,FALSE)</f>
         <v>1566</v>
       </c>
@@ -9854,7 +9851,7 @@
         <v>244</v>
       </c>
       <c r="E195" s="5"/>
-      <c r="F195" s="9">
+      <c r="F195" s="8">
         <f>VLOOKUP(C195,ID!B:C,2,FALSE)</f>
         <v>1567</v>
       </c>
@@ -9875,7 +9872,7 @@
         <v>54</v>
       </c>
       <c r="E196" s="5"/>
-      <c r="F196" s="9">
+      <c r="F196" s="8">
         <f>VLOOKUP(C196,ID!B:C,2,FALSE)</f>
         <v>1501</v>
       </c>
@@ -9896,7 +9893,7 @@
         <v>160</v>
       </c>
       <c r="E197" s="5"/>
-      <c r="F197" s="9">
+      <c r="F197" s="8">
         <f>VLOOKUP(C197,ID!B:C,2,FALSE)</f>
         <v>1048</v>
       </c>
@@ -9917,7 +9914,7 @@
         <v>16</v>
       </c>
       <c r="E198" s="5"/>
-      <c r="F198" s="9">
+      <c r="F198" s="8">
         <f>VLOOKUP(C198,ID!B:C,2,FALSE)</f>
         <v>1568</v>
       </c>
@@ -9937,7 +9934,7 @@
         <v>25</v>
       </c>
       <c r="E199" s="6"/>
-      <c r="F199" s="9">
+      <c r="F199" s="8">
         <f>VLOOKUP(C199,ID!B:C,2,FALSE)</f>
         <v>1569</v>
       </c>
@@ -9957,7 +9954,7 @@
         <v>16</v>
       </c>
       <c r="E200" s="5"/>
-      <c r="F200" s="9">
+      <c r="F200" s="8">
         <f>VLOOKUP(C200,ID!B:C,2,FALSE)</f>
         <v>1570</v>
       </c>
@@ -9977,7 +9974,7 @@
         <v>7</v>
       </c>
       <c r="E201" s="5"/>
-      <c r="F201" s="9">
+      <c r="F201" s="8">
         <f>VLOOKUP(C201,ID!B:C,2,FALSE)</f>
         <v>1571</v>
       </c>
@@ -9997,7 +9994,7 @@
         <v>108</v>
       </c>
       <c r="E202" s="5"/>
-      <c r="F202" s="9">
+      <c r="F202" s="8">
         <f>VLOOKUP(C202,ID!B:C,2,FALSE)</f>
         <v>108</v>
       </c>
@@ -10017,7 +10014,7 @@
         <v>29</v>
       </c>
       <c r="E203" s="5"/>
-      <c r="F203" s="9">
+      <c r="F203" s="8">
         <f>VLOOKUP(C203,ID!B:C,2,FALSE)</f>
         <v>1572</v>
       </c>
@@ -10038,7 +10035,7 @@
         <v>190</v>
       </c>
       <c r="E204" s="5"/>
-      <c r="F204" s="9">
+      <c r="F204" s="8">
         <f>VLOOKUP(C204,ID!B:C,2,FALSE)</f>
         <v>1573</v>
       </c>
@@ -10059,7 +10056,7 @@
         <v>50</v>
       </c>
       <c r="E205" s="5"/>
-      <c r="F205" s="9">
+      <c r="F205" s="8">
         <f>VLOOKUP(C205,ID!B:C,2,FALSE)</f>
         <v>1574</v>
       </c>
@@ -10079,7 +10076,7 @@
         <v>40</v>
       </c>
       <c r="E206" s="5"/>
-      <c r="F206" s="9">
+      <c r="F206" s="8">
         <f>VLOOKUP(C206,ID!B:C,2,FALSE)</f>
         <v>1575</v>
       </c>
@@ -10099,7 +10096,7 @@
         <v>25</v>
       </c>
       <c r="E207" s="5"/>
-      <c r="F207" s="9">
+      <c r="F207" s="8">
         <f>VLOOKUP(C207,ID!B:C,2,FALSE)</f>
         <v>1576</v>
       </c>
@@ -10119,7 +10116,7 @@
         <v>44</v>
       </c>
       <c r="E208" s="5"/>
-      <c r="F208" s="9">
+      <c r="F208" s="8">
         <f>VLOOKUP(C208,ID!B:C,2,FALSE)</f>
         <v>1577</v>
       </c>
@@ -10139,7 +10136,7 @@
         <v>100</v>
       </c>
       <c r="E209" s="5"/>
-      <c r="F209" s="9">
+      <c r="F209" s="8">
         <f>VLOOKUP(C209,ID!B:C,2,FALSE)</f>
         <v>1578</v>
       </c>
@@ -10159,7 +10156,7 @@
         <v>200</v>
       </c>
       <c r="E210" s="6"/>
-      <c r="F210" s="9">
+      <c r="F210" s="8">
         <f>VLOOKUP(C210,ID!B:C,2,FALSE)</f>
         <v>1579</v>
       </c>
@@ -10180,7 +10177,7 @@
         <v>100</v>
       </c>
       <c r="E211" s="6"/>
-      <c r="F211" s="9">
+      <c r="F211" s="8">
         <f>VLOOKUP(C211,ID!B:C,2,FALSE)</f>
         <v>1580</v>
       </c>
@@ -10200,7 +10197,7 @@
         <v>100</v>
       </c>
       <c r="E212" s="6"/>
-      <c r="F212" s="9">
+      <c r="F212" s="8">
         <f>VLOOKUP(C212,ID!B:C,2,FALSE)</f>
         <v>1581</v>
       </c>
@@ -10220,7 +10217,7 @@
         <v>60</v>
       </c>
       <c r="E213" s="5"/>
-      <c r="F213" s="9">
+      <c r="F213" s="8">
         <f>VLOOKUP(C213,ID!B:C,2,FALSE)</f>
         <v>524</v>
       </c>
@@ -10240,7 +10237,7 @@
         <v>50</v>
       </c>
       <c r="E214" s="5"/>
-      <c r="F214" s="9">
+      <c r="F214" s="8">
         <f>VLOOKUP(C214,ID!B:C,2,FALSE)</f>
         <v>947</v>
       </c>
@@ -10260,7 +10257,7 @@
         <v>60</v>
       </c>
       <c r="E215" s="5"/>
-      <c r="F215" s="9">
+      <c r="F215" s="8">
         <f>VLOOKUP(C215,ID!B:C,2,FALSE)</f>
         <v>1582</v>
       </c>
@@ -10280,7 +10277,7 @@
         <v>6</v>
       </c>
       <c r="E216" s="5"/>
-      <c r="F216" s="9">
+      <c r="F216" s="8">
         <f>VLOOKUP(C216,ID!B:C,2,FALSE)</f>
         <v>1583</v>
       </c>
@@ -10300,7 +10297,7 @@
         <v>10</v>
       </c>
       <c r="E217" s="5"/>
-      <c r="F217" s="9">
+      <c r="F217" s="8">
         <f>VLOOKUP(C217,ID!B:C,2,FALSE)</f>
         <v>1389</v>
       </c>
@@ -10320,7 +10317,7 @@
         <v>235</v>
       </c>
       <c r="E218" s="5"/>
-      <c r="F218" s="9">
+      <c r="F218" s="8">
         <f>VLOOKUP(C218,ID!B:C,2,FALSE)</f>
         <v>273</v>
       </c>
@@ -10340,7 +10337,7 @@
         <v>25</v>
       </c>
       <c r="E219" s="5"/>
-      <c r="F219" s="9">
+      <c r="F219" s="8">
         <f>VLOOKUP(C219,ID!B:C,2,FALSE)</f>
         <v>1584</v>
       </c>
@@ -10358,7 +10355,7 @@
         <v>6</v>
       </c>
       <c r="E220" s="6"/>
-      <c r="F220" s="9">
+      <c r="F220" s="8">
         <f>VLOOKUP(C220,ID!B:C,2,FALSE)</f>
         <v>1585</v>
       </c>
@@ -10376,7 +10373,7 @@
         <v>35</v>
       </c>
       <c r="E221" s="6"/>
-      <c r="F221" s="9">
+      <c r="F221" s="8">
         <f>VLOOKUP(C221,ID!B:C,2,FALSE)</f>
         <v>1586</v>
       </c>
@@ -10396,7 +10393,7 @@
         <v>330</v>
       </c>
       <c r="E222" s="5"/>
-      <c r="F222" s="9">
+      <c r="F222" s="8">
         <f>VLOOKUP(C222,ID!B:C,2,FALSE)</f>
         <v>1587</v>
       </c>
@@ -10416,7 +10413,7 @@
         <v>55</v>
       </c>
       <c r="E223" s="5"/>
-      <c r="F223" s="9">
+      <c r="F223" s="8">
         <f>VLOOKUP(C223,ID!B:C,2,FALSE)</f>
         <v>372</v>
       </c>
@@ -10437,7 +10434,7 @@
         <v>30</v>
       </c>
       <c r="E224" s="5"/>
-      <c r="F224" s="9">
+      <c r="F224" s="8">
         <f>VLOOKUP(C224,ID!B:C,2,FALSE)</f>
         <v>275</v>
       </c>
@@ -10458,7 +10455,7 @@
         <v>95</v>
       </c>
       <c r="E225" s="5"/>
-      <c r="F225" s="9">
+      <c r="F225" s="8">
         <f>VLOOKUP(C225,ID!B:C,2,FALSE)</f>
         <v>1588</v>
       </c>
@@ -10478,7 +10475,7 @@
         <v>35</v>
       </c>
       <c r="E226" s="5"/>
-      <c r="F226" s="9">
+      <c r="F226" s="8">
         <f>VLOOKUP(C226,ID!B:C,2,FALSE)</f>
         <v>703</v>
       </c>
@@ -10498,7 +10495,7 @@
         <v>53</v>
       </c>
       <c r="E227" s="5"/>
-      <c r="F227" s="9">
+      <c r="F227" s="8">
         <f>VLOOKUP(C227,ID!B:C,2,FALSE)</f>
         <v>278</v>
       </c>
@@ -10519,7 +10516,7 @@
         <v>85</v>
       </c>
       <c r="E228" s="5"/>
-      <c r="F228" s="9">
+      <c r="F228" s="8">
         <f>VLOOKUP(C228,ID!B:C,2,FALSE)</f>
         <v>279</v>
       </c>
@@ -10540,7 +10537,7 @@
         <v>9</v>
       </c>
       <c r="E229" s="5"/>
-      <c r="F229" s="9">
+      <c r="F229" s="8">
         <f>VLOOKUP(C229,ID!B:C,2,FALSE)</f>
         <v>655</v>
       </c>
@@ -10560,7 +10557,7 @@
         <v>93</v>
       </c>
       <c r="E230" s="5"/>
-      <c r="F230" s="9">
+      <c r="F230" s="8">
         <f>VLOOKUP(C230,ID!B:C,2,FALSE)</f>
         <v>878</v>
       </c>
@@ -10580,7 +10577,7 @@
         <v>111</v>
       </c>
       <c r="E231" s="5"/>
-      <c r="F231" s="9">
+      <c r="F231" s="8">
         <f>VLOOKUP(C231,ID!B:C,2,FALSE)</f>
         <v>1425</v>
       </c>
@@ -10600,7 +10597,7 @@
         <v>13</v>
       </c>
       <c r="E232" s="5"/>
-      <c r="F232" s="9">
+      <c r="F232" s="8">
         <f>VLOOKUP(C232,ID!B:C,2,FALSE)</f>
         <v>1589</v>
       </c>
@@ -10620,7 +10617,7 @@
         <v>6</v>
       </c>
       <c r="E233" s="5"/>
-      <c r="F233" s="9">
+      <c r="F233" s="8">
         <f>VLOOKUP(C233,ID!B:C,2,FALSE)</f>
         <v>746</v>
       </c>
@@ -10640,7 +10637,7 @@
         <v>80</v>
       </c>
       <c r="E234" s="5"/>
-      <c r="F234" s="9">
+      <c r="F234" s="8">
         <f>VLOOKUP(C234,ID!B:C,2,FALSE)</f>
         <v>1027</v>
       </c>
@@ -10660,7 +10657,7 @@
         <v>50</v>
       </c>
       <c r="E235" s="5"/>
-      <c r="F235" s="9">
+      <c r="F235" s="8">
         <f>VLOOKUP(C235,ID!B:C,2,FALSE)</f>
         <v>492</v>
       </c>
@@ -10678,7 +10675,7 @@
         <v>25</v>
       </c>
       <c r="E236" s="5"/>
-      <c r="F236" s="9">
+      <c r="F236" s="8">
         <f>VLOOKUP(C236,ID!B:C,2,FALSE)</f>
         <v>607</v>
       </c>
@@ -10696,7 +10693,7 @@
         <v>7</v>
       </c>
       <c r="E237" s="5"/>
-      <c r="F237" s="9">
+      <c r="F237" s="8">
         <f>VLOOKUP(C237,ID!B:C,2,FALSE)</f>
         <v>570</v>
       </c>
@@ -10716,7 +10713,7 @@
         <v>75</v>
       </c>
       <c r="E238" s="5"/>
-      <c r="F238" s="9">
+      <c r="F238" s="8">
         <f>VLOOKUP(C238,ID!B:C,2,FALSE)</f>
         <v>186</v>
       </c>
@@ -10737,7 +10734,7 @@
         <v>75</v>
       </c>
       <c r="E239" s="5"/>
-      <c r="F239" s="9">
+      <c r="F239" s="8">
         <f>VLOOKUP(C239,ID!B:C,2,FALSE)</f>
         <v>942</v>
       </c>
@@ -10758,7 +10755,7 @@
         <v>100</v>
       </c>
       <c r="E240" s="5"/>
-      <c r="F240" s="9">
+      <c r="F240" s="8">
         <f>VLOOKUP(C240,ID!B:C,2,FALSE)</f>
         <v>802</v>
       </c>
@@ -10778,7 +10775,7 @@
         <v>122</v>
       </c>
       <c r="E241" s="5"/>
-      <c r="F241" s="9">
+      <c r="F241" s="8">
         <f>VLOOKUP(C241,ID!B:C,2,FALSE)</f>
         <v>1590</v>
       </c>
@@ -10799,7 +10796,7 @@
         <v>37</v>
       </c>
       <c r="E242" s="5"/>
-      <c r="F242" s="9">
+      <c r="F242" s="8">
         <f>VLOOKUP(C242,ID!B:C,2,FALSE)</f>
         <v>425</v>
       </c>
@@ -10820,7 +10817,7 @@
         <v>100</v>
       </c>
       <c r="E243" s="5"/>
-      <c r="F243" s="9">
+      <c r="F243" s="8">
         <f>VLOOKUP(C243,ID!B:C,2,FALSE)</f>
         <v>806</v>
       </c>
@@ -10841,7 +10838,7 @@
         <v>92</v>
       </c>
       <c r="E244" s="5"/>
-      <c r="F244" s="9">
+      <c r="F244" s="8">
         <f>VLOOKUP(C244,ID!B:C,2,FALSE)</f>
         <v>1591</v>
       </c>
@@ -10862,7 +10859,7 @@
         <v>65</v>
       </c>
       <c r="E245" s="5"/>
-      <c r="F245" s="9">
+      <c r="F245" s="8">
         <f>VLOOKUP(C245,ID!B:C,2,FALSE)</f>
         <v>805</v>
       </c>
@@ -10883,7 +10880,7 @@
         <v>127</v>
       </c>
       <c r="E246" s="5"/>
-      <c r="F246" s="9">
+      <c r="F246" s="8">
         <f>VLOOKUP(C246,ID!B:C,2,FALSE)</f>
         <v>747</v>
       </c>
@@ -10904,7 +10901,7 @@
         <v>32</v>
       </c>
       <c r="E247" s="5"/>
-      <c r="F247" s="9">
+      <c r="F247" s="8">
         <f>VLOOKUP(C247,ID!B:C,2,FALSE)</f>
         <v>397</v>
       </c>
@@ -10925,7 +10922,7 @@
         <v>125</v>
       </c>
       <c r="E248" s="5"/>
-      <c r="F248" s="9">
+      <c r="F248" s="8">
         <f>VLOOKUP(C248,ID!B:C,2,FALSE)</f>
         <v>287</v>
       </c>
@@ -10946,7 +10943,7 @@
         <v>373</v>
       </c>
       <c r="E249" s="5"/>
-      <c r="F249" s="9">
+      <c r="F249" s="8">
         <f>VLOOKUP(C249,ID!B:C,2,FALSE)</f>
         <v>455</v>
       </c>
@@ -10967,7 +10964,7 @@
         <v>5</v>
       </c>
       <c r="E250" s="5"/>
-      <c r="F250" s="9">
+      <c r="F250" s="8">
         <f>VLOOKUP(C250,ID!B:C,2,FALSE)</f>
         <v>937</v>
       </c>
@@ -10987,7 +10984,7 @@
         <v>50</v>
       </c>
       <c r="E251" s="5"/>
-      <c r="F251" s="9">
+      <c r="F251" s="8">
         <f>VLOOKUP(C251,ID!B:C,2,FALSE)</f>
         <v>1592</v>
       </c>
@@ -11007,7 +11004,7 @@
         <v>40</v>
       </c>
       <c r="E252" s="5"/>
-      <c r="F252" s="9">
+      <c r="F252" s="8">
         <f>VLOOKUP(C252,ID!B:C,2,FALSE)</f>
         <v>748</v>
       </c>
@@ -11028,7 +11025,7 @@
         <v>50</v>
       </c>
       <c r="E253" s="5"/>
-      <c r="F253" s="9">
+      <c r="F253" s="8">
         <f>VLOOKUP(C253,ID!B:C,2,FALSE)</f>
         <v>1593</v>
       </c>
@@ -11049,7 +11046,7 @@
         <v>30</v>
       </c>
       <c r="E254" s="5"/>
-      <c r="F254" s="9">
+      <c r="F254" s="8">
         <f>VLOOKUP(C254,ID!B:C,2,FALSE)</f>
         <v>467</v>
       </c>
@@ -11070,7 +11067,7 @@
         <v>277</v>
       </c>
       <c r="E255" s="5"/>
-      <c r="F255" s="9">
+      <c r="F255" s="8">
         <f>VLOOKUP(C255,ID!B:C,2,FALSE)</f>
         <v>290</v>
       </c>
@@ -11091,7 +11088,7 @@
         <v>45</v>
       </c>
       <c r="E256" s="5"/>
-      <c r="F256" s="9">
+      <c r="F256" s="8">
         <f>VLOOKUP(C256,ID!B:C,2,FALSE)</f>
         <v>1594</v>
       </c>
@@ -11111,7 +11108,7 @@
         <v>68</v>
       </c>
       <c r="E257" s="5"/>
-      <c r="F257" s="9">
+      <c r="F257" s="8">
         <f>VLOOKUP(C257,ID!B:C,2,FALSE)</f>
         <v>1595</v>
       </c>
@@ -11131,7 +11128,7 @@
         <v>30</v>
       </c>
       <c r="E258" s="5"/>
-      <c r="F258" s="9">
+      <c r="F258" s="8">
         <f>VLOOKUP(C258,ID!B:C,2,FALSE)</f>
         <v>1596</v>
       </c>
@@ -11151,7 +11148,7 @@
         <v>650</v>
       </c>
       <c r="E259" s="5"/>
-      <c r="F259" s="9">
+      <c r="F259" s="8">
         <f>VLOOKUP(C259,ID!B:C,2,FALSE)</f>
         <v>289</v>
       </c>
@@ -11172,7 +11169,7 @@
         <v>2</v>
       </c>
       <c r="E260" s="5"/>
-      <c r="F260" s="9">
+      <c r="F260" s="8">
         <f>VLOOKUP(C260,ID!B:C,2,FALSE)</f>
         <v>493</v>
       </c>
@@ -11192,7 +11189,7 @@
         <v>94</v>
       </c>
       <c r="E261" s="5"/>
-      <c r="F261" s="9">
+      <c r="F261" s="8">
         <f>VLOOKUP(C261,ID!B:C,2,FALSE)</f>
         <v>1597</v>
       </c>
@@ -11212,7 +11209,7 @@
         <v>13</v>
       </c>
       <c r="E262" s="5"/>
-      <c r="F262" s="9">
+      <c r="F262" s="8">
         <f>VLOOKUP(C262,ID!B:C,2,FALSE)</f>
         <v>288</v>
       </c>
@@ -11232,7 +11229,7 @@
         <v>60</v>
       </c>
       <c r="E263" s="5"/>
-      <c r="F263" s="9">
+      <c r="F263" s="8">
         <f>VLOOKUP(C263,ID!B:C,2,FALSE)</f>
         <v>446</v>
       </c>
@@ -11252,7 +11249,7 @@
         <v>100</v>
       </c>
       <c r="E264" s="5"/>
-      <c r="F264" s="9">
+      <c r="F264" s="8">
         <f>VLOOKUP(C264,ID!B:C,2,FALSE)</f>
         <v>452</v>
       </c>
@@ -11272,7 +11269,7 @@
         <v>60</v>
       </c>
       <c r="E265" s="5"/>
-      <c r="F265" s="9">
+      <c r="F265" s="8">
         <f>VLOOKUP(C265,ID!B:C,2,FALSE)</f>
         <v>1598</v>
       </c>
@@ -11292,7 +11289,7 @@
         <v>210</v>
       </c>
       <c r="E266" s="5"/>
-      <c r="F266" s="9">
+      <c r="F266" s="8">
         <f>VLOOKUP(C266,ID!B:C,2,FALSE)</f>
         <v>1049</v>
       </c>
@@ -11313,7 +11310,7 @@
         <v>1460</v>
       </c>
       <c r="E267" s="5"/>
-      <c r="F267" s="9">
+      <c r="F267" s="8">
         <f>VLOOKUP(C267,ID!B:C,2,FALSE)</f>
         <v>752</v>
       </c>
@@ -11332,7 +11329,7 @@
         <v>16</v>
       </c>
       <c r="E268" s="5"/>
-      <c r="F268" s="9">
+      <c r="F268" s="8">
         <f>VLOOKUP(C268,ID!B:C,2,FALSE)</f>
         <v>559</v>
       </c>
@@ -11350,7 +11347,7 @@
         <v>1</v>
       </c>
       <c r="E269" s="5"/>
-      <c r="F269" s="9">
+      <c r="F269" s="8">
         <f>VLOOKUP(C269,ID!B:C,2,FALSE)</f>
         <v>896</v>
       </c>
@@ -11370,7 +11367,7 @@
         <v>25</v>
       </c>
       <c r="E270" s="5"/>
-      <c r="F270" s="9">
+      <c r="F270" s="8">
         <f>VLOOKUP(C270,ID!B:C,2,FALSE)</f>
         <v>625</v>
       </c>
@@ -11390,7 +11387,7 @@
         <v>40</v>
       </c>
       <c r="E271" s="5"/>
-      <c r="F271" s="9">
+      <c r="F271" s="8">
         <f>VLOOKUP(C271,ID!B:C,2,FALSE)</f>
         <v>761</v>
       </c>
@@ -11408,7 +11405,7 @@
       </c>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
-      <c r="F272" s="9">
+      <c r="F272" s="8">
         <f>VLOOKUP(C272,ID!B:C,2,FALSE)</f>
         <v>866</v>
       </c>
@@ -11428,7 +11425,7 @@
         <v>20</v>
       </c>
       <c r="E273" s="5"/>
-      <c r="F273" s="9">
+      <c r="F273" s="8">
         <f>VLOOKUP(C273,ID!B:C,2,FALSE)</f>
         <v>693</v>
       </c>
@@ -11449,7 +11446,7 @@
         <v>100</v>
       </c>
       <c r="E274" s="5"/>
-      <c r="F274" s="9">
+      <c r="F274" s="8">
         <f>VLOOKUP(C274,ID!B:C,2,FALSE)</f>
         <v>1599</v>
       </c>
@@ -11469,7 +11466,7 @@
         <v>100</v>
       </c>
       <c r="E275" s="5"/>
-      <c r="F275" s="9">
+      <c r="F275" s="8">
         <f>VLOOKUP(C275,ID!B:C,2,FALSE)</f>
         <v>1600</v>
       </c>
@@ -11489,7 +11486,7 @@
         <v>40</v>
       </c>
       <c r="E276" s="5"/>
-      <c r="F276" s="9">
+      <c r="F276" s="8">
         <f>VLOOKUP(C276,ID!B:C,2,FALSE)</f>
         <v>666</v>
       </c>
@@ -11509,7 +11506,7 @@
         <v>50</v>
       </c>
       <c r="E277" s="5"/>
-      <c r="F277" s="9">
+      <c r="F277" s="8">
         <f>VLOOKUP(C277,ID!B:C,2,FALSE)</f>
         <v>1601</v>
       </c>
@@ -11529,7 +11526,7 @@
         <v>30</v>
       </c>
       <c r="E278" s="5"/>
-      <c r="F278" s="9">
+      <c r="F278" s="8">
         <f>VLOOKUP(C278,ID!B:C,2,FALSE)</f>
         <v>1602</v>
       </c>
@@ -11549,7 +11546,7 @@
         <v>200</v>
       </c>
       <c r="E279" s="6"/>
-      <c r="F279" s="9">
+      <c r="F279" s="8">
         <f>VLOOKUP(C279,ID!B:C,2,FALSE)</f>
         <v>1603</v>
       </c>
@@ -11569,7 +11566,7 @@
         <v>25</v>
       </c>
       <c r="E280" s="5"/>
-      <c r="F280" s="9">
+      <c r="F280" s="8">
         <f>VLOOKUP(C280,ID!B:C,2,FALSE)</f>
         <v>1604</v>
       </c>
@@ -11589,7 +11586,7 @@
         <v>40</v>
       </c>
       <c r="E281" s="5"/>
-      <c r="F281" s="9">
+      <c r="F281" s="8">
         <f>VLOOKUP(C281,ID!B:C,2,FALSE)</f>
         <v>915</v>
       </c>
@@ -11607,7 +11604,7 @@
         <v>92</v>
       </c>
       <c r="E282" s="5"/>
-      <c r="F282" s="9">
+      <c r="F282" s="8">
         <f>VLOOKUP(C282,ID!B:C,2,FALSE)</f>
         <v>1468</v>
       </c>
@@ -11627,7 +11624,7 @@
         <v>150</v>
       </c>
       <c r="E283" s="5"/>
-      <c r="F283" s="9">
+      <c r="F283" s="8">
         <f>VLOOKUP(C283,ID!B:C,2,FALSE)</f>
         <v>586</v>
       </c>
@@ -11646,7 +11643,7 @@
         <v>2</v>
       </c>
       <c r="E284" s="5"/>
-      <c r="F284" s="9">
+      <c r="F284" s="8">
         <f>VLOOKUP(C284,ID!B:C,2,FALSE)</f>
         <v>935</v>
       </c>
@@ -11666,7 +11663,7 @@
         <v>250</v>
       </c>
       <c r="E285" s="6"/>
-      <c r="F285" s="9">
+      <c r="F285" s="8">
         <f>VLOOKUP(C285,ID!B:C,2,FALSE)</f>
         <v>1605</v>
       </c>
@@ -11686,7 +11683,7 @@
         <v>27</v>
       </c>
       <c r="E286" s="5"/>
-      <c r="F286" s="9">
+      <c r="F286" s="8">
         <f>VLOOKUP(C286,ID!B:C,2,FALSE)</f>
         <v>686</v>
       </c>
@@ -11706,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="E287" s="6"/>
-      <c r="F287" s="9">
+      <c r="F287" s="8">
         <f>VLOOKUP(C287,ID!B:C,2,FALSE)</f>
         <v>459</v>
       </c>
@@ -11726,7 +11723,7 @@
         <v>56</v>
       </c>
       <c r="E288" s="5"/>
-      <c r="F288" s="9">
+      <c r="F288" s="8">
         <f>VLOOKUP(C288,ID!B:C,2,FALSE)</f>
         <v>564</v>
       </c>
@@ -11746,7 +11743,7 @@
         <v>4</v>
       </c>
       <c r="E289" s="5"/>
-      <c r="F289" s="9">
+      <c r="F289" s="8">
         <f>VLOOKUP(C289,ID!B:C,2,FALSE)</f>
         <v>1372</v>
       </c>
@@ -11766,7 +11763,7 @@
         <v>100</v>
       </c>
       <c r="E290" s="5"/>
-      <c r="F290" s="9">
+      <c r="F290" s="8">
         <f>VLOOKUP(C290,ID!B:C,2,FALSE)</f>
         <v>1145</v>
       </c>
@@ -11786,7 +11783,7 @@
         <v>110</v>
       </c>
       <c r="E291" s="5"/>
-      <c r="F291" s="9">
+      <c r="F291" s="8">
         <f>VLOOKUP(C291,ID!B:C,2,FALSE)</f>
         <v>379</v>
       </c>
@@ -11806,7 +11803,7 @@
         <v>50</v>
       </c>
       <c r="E292" s="5"/>
-      <c r="F292" s="9">
+      <c r="F292" s="8">
         <f>VLOOKUP(C292,ID!B:C,2,FALSE)</f>
         <v>722</v>
       </c>
@@ -11826,7 +11823,7 @@
         <v>155</v>
       </c>
       <c r="E293" s="5"/>
-      <c r="F293" s="9">
+      <c r="F293" s="8">
         <f>VLOOKUP(C293,ID!B:C,2,FALSE)</f>
         <v>1102</v>
       </c>
@@ -11846,7 +11843,7 @@
         <v>4000</v>
       </c>
       <c r="E294" s="5"/>
-      <c r="F294" s="9">
+      <c r="F294" s="8">
         <f>VLOOKUP(C294,ID!B:C,2,FALSE)</f>
         <v>771</v>
       </c>
@@ -11865,7 +11862,7 @@
         <v>38</v>
       </c>
       <c r="E295" s="5"/>
-      <c r="F295" s="9">
+      <c r="F295" s="8">
         <f>VLOOKUP(C295,ID!B:C,2,FALSE)</f>
         <v>1606</v>
       </c>
@@ -11885,7 +11882,7 @@
         <v>18</v>
       </c>
       <c r="E296" s="5"/>
-      <c r="F296" s="9">
+      <c r="F296" s="8">
         <f>VLOOKUP(C296,ID!B:C,2,FALSE)</f>
         <v>291</v>
       </c>
@@ -11906,7 +11903,7 @@
         <v>80</v>
       </c>
       <c r="E297" s="5"/>
-      <c r="F297" s="9">
+      <c r="F297" s="8">
         <f>VLOOKUP(C297,ID!B:C,2,FALSE)</f>
         <v>772</v>
       </c>
@@ -11926,7 +11923,7 @@
         <v>375</v>
       </c>
       <c r="E298" s="5"/>
-      <c r="F298" s="9">
+      <c r="F298" s="8">
         <f>VLOOKUP(C298,ID!B:C,2,FALSE)</f>
         <v>1079</v>
       </c>
@@ -11947,7 +11944,7 @@
         <v>125</v>
       </c>
       <c r="E299" s="5"/>
-      <c r="F299" s="9">
+      <c r="F299" s="8">
         <f>VLOOKUP(C299,ID!B:C,2,FALSE)</f>
         <v>1354</v>
       </c>
@@ -11967,7 +11964,7 @@
         <v>175</v>
       </c>
       <c r="E300" s="5"/>
-      <c r="F300" s="9">
+      <c r="F300" s="8">
         <f>VLOOKUP(C300,ID!B:C,2,FALSE)</f>
         <v>1446</v>
       </c>
@@ -11987,7 +11984,7 @@
         <v>75</v>
       </c>
       <c r="E301" s="5"/>
-      <c r="F301" s="9">
+      <c r="F301" s="8">
         <f>VLOOKUP(C301,ID!B:C,2,FALSE)</f>
         <v>285</v>
       </c>
@@ -12007,7 +12004,7 @@
         <v>45</v>
       </c>
       <c r="E302" s="5"/>
-      <c r="F302" s="9">
+      <c r="F302" s="8">
         <f>VLOOKUP(C302,ID!B:C,2,FALSE)</f>
         <v>1498</v>
       </c>
@@ -12028,7 +12025,7 @@
         <v>35</v>
       </c>
       <c r="E303" s="5"/>
-      <c r="F303" s="9">
+      <c r="F303" s="8">
         <f>VLOOKUP(C303,ID!B:C,2,FALSE)</f>
         <v>293</v>
       </c>
@@ -12048,7 +12045,7 @@
         <v>67</v>
       </c>
       <c r="E304" s="5"/>
-      <c r="F304" s="9">
+      <c r="F304" s="8">
         <f>VLOOKUP(C304,ID!B:C,2,FALSE)</f>
         <v>454</v>
       </c>
@@ -12068,7 +12065,7 @@
         <v>35</v>
       </c>
       <c r="E305" s="5"/>
-      <c r="F305" s="9">
+      <c r="F305" s="8">
         <f>VLOOKUP(C305,ID!B:C,2,FALSE)</f>
         <v>295</v>
       </c>
@@ -12088,7 +12085,7 @@
         <v>8</v>
       </c>
       <c r="E306" s="5"/>
-      <c r="F306" s="9">
+      <c r="F306" s="8">
         <f>VLOOKUP(C306,ID!B:C,2,FALSE)</f>
         <v>294</v>
       </c>
@@ -12106,7 +12103,7 @@
         <v>25</v>
       </c>
       <c r="E307" s="5"/>
-      <c r="F307" s="9">
+      <c r="F307" s="8">
         <f>VLOOKUP(C307,ID!B:C,2,FALSE)</f>
         <v>1118</v>
       </c>
@@ -12124,7 +12121,7 @@
         <v>20</v>
       </c>
       <c r="E308" s="5"/>
-      <c r="F308" s="9">
+      <c r="F308" s="8">
         <f>VLOOKUP(C308,ID!B:C,2,FALSE)</f>
         <v>1411</v>
       </c>
@@ -12144,7 +12141,7 @@
         <v>45</v>
       </c>
       <c r="E309" s="5"/>
-      <c r="F309" s="9">
+      <c r="F309" s="8">
         <f>VLOOKUP(C309,ID!B:C,2,FALSE)</f>
         <v>297</v>
       </c>
@@ -12163,7 +12160,7 @@
       </c>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
-      <c r="F310" s="9">
+      <c r="F310" s="8">
         <f>VLOOKUP(C310,ID!B:C,2,FALSE)</f>
         <v>299</v>
       </c>
@@ -12181,7 +12178,7 @@
       </c>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
-      <c r="F311" s="9">
+      <c r="F311" s="8">
         <f>VLOOKUP(C311,ID!B:C,2,FALSE)</f>
         <v>53</v>
       </c>
@@ -12201,7 +12198,7 @@
         <v>440</v>
       </c>
       <c r="E312" s="5"/>
-      <c r="F312" s="9">
+      <c r="F312" s="8">
         <f>VLOOKUP(C312,ID!B:C,2,FALSE)</f>
         <v>1607</v>
       </c>
@@ -12221,7 +12218,7 @@
         <v>300</v>
       </c>
       <c r="E313" s="5"/>
-      <c r="F313" s="9">
+      <c r="F313" s="8">
         <f>VLOOKUP(C313,ID!B:C,2,FALSE)</f>
         <v>1608</v>
       </c>
@@ -12241,7 +12238,7 @@
         <v>19</v>
       </c>
       <c r="E314" s="5"/>
-      <c r="F314" s="9">
+      <c r="F314" s="8">
         <f>VLOOKUP(C314,ID!B:C,2,FALSE)</f>
         <v>1609</v>
       </c>
@@ -12259,7 +12256,7 @@
         <v>17</v>
       </c>
       <c r="E315" s="6"/>
-      <c r="F315" s="9">
+      <c r="F315" s="8">
         <f>VLOOKUP(C315,ID!B:C,2,FALSE)</f>
         <v>534</v>
       </c>
@@ -12279,7 +12276,7 @@
         <v>5</v>
       </c>
       <c r="E316" s="5"/>
-      <c r="F316" s="9">
+      <c r="F316" s="8">
         <f>VLOOKUP(C316,ID!B:C,2,FALSE)</f>
         <v>3</v>
       </c>
@@ -12299,7 +12296,7 @@
         <v>17</v>
       </c>
       <c r="E317" s="5"/>
-      <c r="F317" s="9">
+      <c r="F317" s="8">
         <f>VLOOKUP(C317,ID!B:C,2,FALSE)</f>
         <v>1610</v>
       </c>
@@ -12320,7 +12317,7 @@
         <v>75</v>
       </c>
       <c r="E318" s="5"/>
-      <c r="F318" s="9">
+      <c r="F318" s="8">
         <f>VLOOKUP(C318,ID!B:C,2,FALSE)</f>
         <v>300</v>
       </c>
@@ -12341,7 +12338,7 @@
         <v>10</v>
       </c>
       <c r="E319" s="5"/>
-      <c r="F319" s="9">
+      <c r="F319" s="8">
         <f>VLOOKUP(C319,ID!B:C,2,FALSE)</f>
         <v>1052</v>
       </c>
@@ -12361,7 +12358,7 @@
         <v>27</v>
       </c>
       <c r="E320" s="5"/>
-      <c r="F320" s="9">
+      <c r="F320" s="8">
         <f>VLOOKUP(C320,ID!B:C,2,FALSE)</f>
         <v>144</v>
       </c>
@@ -12382,7 +12379,7 @@
         <v>30</v>
       </c>
       <c r="E321" s="5"/>
-      <c r="F321" s="9">
+      <c r="F321" s="8">
         <f>VLOOKUP(C321,ID!B:C,2,FALSE)</f>
         <v>301</v>
       </c>
@@ -12403,7 +12400,7 @@
         <v>6</v>
       </c>
       <c r="E322" s="5"/>
-      <c r="F322" s="9">
+      <c r="F322" s="8">
         <f>VLOOKUP(C322,ID!B:C,2,FALSE)</f>
         <v>304</v>
       </c>
@@ -12423,7 +12420,7 @@
         <v>100</v>
       </c>
       <c r="E323" s="5"/>
-      <c r="F323" s="9">
+      <c r="F323" s="8">
         <f>VLOOKUP(C323,ID!B:C,2,FALSE)</f>
         <v>1611</v>
       </c>
@@ -12443,7 +12440,7 @@
         <v>23</v>
       </c>
       <c r="E324" s="5"/>
-      <c r="F324" s="9">
+      <c r="F324" s="8">
         <f>VLOOKUP(C324,ID!B:C,2,FALSE)</f>
         <v>786</v>
       </c>
@@ -12463,7 +12460,7 @@
         <v>13</v>
       </c>
       <c r="E325" s="5"/>
-      <c r="F325" s="9">
+      <c r="F325" s="8">
         <f>VLOOKUP(C325,ID!B:C,2,FALSE)</f>
         <v>1612</v>
       </c>
@@ -12483,7 +12480,7 @@
         <v>125</v>
       </c>
       <c r="E326" s="5"/>
-      <c r="F326" s="9">
+      <c r="F326" s="8">
         <f>VLOOKUP(C326,ID!B:C,2,FALSE)</f>
         <v>305</v>
       </c>
@@ -12503,7 +12500,7 @@
         <v>11</v>
       </c>
       <c r="E327" s="5"/>
-      <c r="F327" s="9">
+      <c r="F327" s="8">
         <f>VLOOKUP(C327,ID!B:C,2,FALSE)</f>
         <v>1292</v>
       </c>
@@ -12523,7 +12520,7 @@
         <v>425</v>
       </c>
       <c r="E328" s="5"/>
-      <c r="F328" s="9">
+      <c r="F328" s="8">
         <f>VLOOKUP(C328,ID!B:C,2,FALSE)</f>
         <v>307</v>
       </c>
@@ -12544,7 +12541,7 @@
         <v>70</v>
       </c>
       <c r="E329" s="5"/>
-      <c r="F329" s="9">
+      <c r="F329" s="8">
         <f>VLOOKUP(C329,ID!B:C,2,FALSE)</f>
         <v>791</v>
       </c>
@@ -12564,7 +12561,7 @@
         <v>35</v>
       </c>
       <c r="E330" s="5"/>
-      <c r="F330" s="9">
+      <c r="F330" s="8">
         <f>VLOOKUP(C330,ID!B:C,2,FALSE)</f>
         <v>1613</v>
       </c>
@@ -12584,7 +12581,7 @@
         <v>175</v>
       </c>
       <c r="E331" s="5"/>
-      <c r="F331" s="9">
+      <c r="F331" s="8">
         <f>VLOOKUP(C331,ID!B:C,2,FALSE)</f>
         <v>306</v>
       </c>
@@ -12604,7 +12601,7 @@
         <v>14</v>
       </c>
       <c r="E332" s="5"/>
-      <c r="F332" s="9">
+      <c r="F332" s="8">
         <f>VLOOKUP(C332,ID!B:C,2,FALSE)</f>
         <v>1614</v>
       </c>
@@ -12624,7 +12621,7 @@
         <v>86</v>
       </c>
       <c r="E333" s="5"/>
-      <c r="F333" s="9">
+      <c r="F333" s="8">
         <f>VLOOKUP(C333,ID!B:C,2,FALSE)</f>
         <v>979</v>
       </c>
@@ -12644,7 +12641,7 @@
         <v>52</v>
       </c>
       <c r="E334" s="5"/>
-      <c r="F334" s="9">
+      <c r="F334" s="8">
         <f>VLOOKUP(C334,ID!B:C,2,FALSE)</f>
         <v>978</v>
       </c>
@@ -12664,7 +12661,7 @@
         <v>30</v>
       </c>
       <c r="E335" s="5"/>
-      <c r="F335" s="9">
+      <c r="F335" s="8">
         <f>VLOOKUP(C335,ID!B:C,2,FALSE)</f>
         <v>577</v>
       </c>
@@ -12684,7 +12681,7 @@
         <v>10</v>
       </c>
       <c r="E336" s="5"/>
-      <c r="F336" s="9">
+      <c r="F336" s="8">
         <f>VLOOKUP(C336,ID!B:C,2,FALSE)</f>
         <v>545</v>
       </c>
@@ -12704,7 +12701,7 @@
         <v>215</v>
       </c>
       <c r="E337" s="5"/>
-      <c r="F337" s="9">
+      <c r="F337" s="8">
         <f>VLOOKUP(C337,ID!B:C,2,FALSE)</f>
         <v>898</v>
       </c>
@@ -12725,7 +12722,7 @@
         <v>25</v>
       </c>
       <c r="E338" s="5"/>
-      <c r="F338" s="9">
+      <c r="F338" s="8">
         <f>VLOOKUP(C338,ID!B:C,2,FALSE)</f>
         <v>1615</v>
       </c>
@@ -12745,7 +12742,7 @@
         <v>125</v>
       </c>
       <c r="E339" s="5"/>
-      <c r="F339" s="9">
+      <c r="F339" s="8">
         <f>VLOOKUP(C339,ID!B:C,2,FALSE)</f>
         <v>1616</v>
       </c>
@@ -12765,7 +12762,7 @@
         <v>65</v>
       </c>
       <c r="E340" s="5"/>
-      <c r="F340" s="9">
+      <c r="F340" s="8">
         <f>VLOOKUP(C340,ID!B:C,2,FALSE)</f>
         <v>1617</v>
       </c>
@@ -12785,7 +12782,7 @@
         <v>350</v>
       </c>
       <c r="E341" s="5"/>
-      <c r="F341" s="9">
+      <c r="F341" s="8">
         <f>VLOOKUP(C341,ID!B:C,2,FALSE)</f>
         <v>1618</v>
       </c>
@@ -12805,7 +12802,7 @@
         <v>75</v>
       </c>
       <c r="E342" s="5"/>
-      <c r="F342" s="9">
+      <c r="F342" s="8">
         <f>VLOOKUP(C342,ID!B:C,2,FALSE)</f>
         <v>1091</v>
       </c>
@@ -12826,7 +12823,7 @@
         <v>62</v>
       </c>
       <c r="E343" s="5"/>
-      <c r="F343" s="9">
+      <c r="F343" s="8">
         <f>VLOOKUP(C343,ID!B:C,2,FALSE)</f>
         <v>1099</v>
       </c>
@@ -12847,7 +12844,7 @@
         <v>425</v>
       </c>
       <c r="E344" s="5"/>
-      <c r="F344" s="9">
+      <c r="F344" s="8">
         <f>VLOOKUP(C344,ID!B:C,2,FALSE)</f>
         <v>1619</v>
       </c>
@@ -12868,7 +12865,7 @@
         <v>35</v>
       </c>
       <c r="E345" s="5"/>
-      <c r="F345" s="9">
+      <c r="F345" s="8">
         <f>VLOOKUP(C345,ID!B:C,2,FALSE)</f>
         <v>640</v>
       </c>
@@ -12888,7 +12885,7 @@
         <v>100</v>
       </c>
       <c r="E346" s="5"/>
-      <c r="F346" s="9">
+      <c r="F346" s="8">
         <f>VLOOKUP(C346,ID!B:C,2,FALSE)</f>
         <v>35</v>
       </c>
@@ -12908,7 +12905,7 @@
         <v>50</v>
       </c>
       <c r="E347" s="5"/>
-      <c r="F347" s="9">
+      <c r="F347" s="8">
         <f>VLOOKUP(C347,ID!B:C,2,FALSE)</f>
         <v>175</v>
       </c>
@@ -12928,7 +12925,7 @@
         <v>7</v>
       </c>
       <c r="E348" s="5"/>
-      <c r="F348" s="9">
+      <c r="F348" s="8">
         <f>VLOOKUP(C348,ID!B:C,2,FALSE)</f>
         <v>384</v>
       </c>
@@ -12948,7 +12945,7 @@
         <v>10</v>
       </c>
       <c r="E349" s="5"/>
-      <c r="F349" s="9">
+      <c r="F349" s="8">
         <f>VLOOKUP(C349,ID!B:C,2,FALSE)</f>
         <v>308</v>
       </c>
@@ -12968,7 +12965,7 @@
         <v>5</v>
       </c>
       <c r="E350" s="5"/>
-      <c r="F350" s="9">
+      <c r="F350" s="8">
         <f>VLOOKUP(C350,ID!B:C,2,FALSE)</f>
         <v>203</v>
       </c>
@@ -12988,7 +12985,7 @@
         <v>45</v>
       </c>
       <c r="E351" s="5"/>
-      <c r="F351" s="9">
+      <c r="F351" s="8">
         <f>VLOOKUP(C351,ID!B:C,2,FALSE)</f>
         <v>798</v>
       </c>
@@ -13008,7 +13005,7 @@
         <v>30</v>
       </c>
       <c r="E352" s="5"/>
-      <c r="F352" s="9">
+      <c r="F352" s="8">
         <f>VLOOKUP(C352,ID!B:C,2,FALSE)</f>
         <v>398</v>
       </c>
@@ -13028,7 +13025,7 @@
         <v>88</v>
       </c>
       <c r="E353" s="5"/>
-      <c r="F353" s="9">
+      <c r="F353" s="8">
         <f>VLOOKUP(C353,ID!B:C,2,FALSE)</f>
         <v>309</v>
       </c>
@@ -13048,7 +13045,7 @@
         <v>11</v>
       </c>
       <c r="E354" s="5"/>
-      <c r="F354" s="9">
+      <c r="F354" s="8">
         <f>VLOOKUP(C354,ID!B:C,2,FALSE)</f>
         <v>1374</v>
       </c>
@@ -13068,7 +13065,7 @@
         <v>25</v>
       </c>
       <c r="E355" s="5"/>
-      <c r="F355" s="9">
+      <c r="F355" s="8">
         <f>VLOOKUP(C355,ID!B:C,2,FALSE)</f>
         <v>692</v>
       </c>
@@ -13088,7 +13085,7 @@
         <v>20</v>
       </c>
       <c r="E356" s="5"/>
-      <c r="F356" s="9">
+      <c r="F356" s="8">
         <f>VLOOKUP(C356,ID!B:C,2,FALSE)</f>
         <v>797</v>
       </c>
@@ -13108,7 +13105,7 @@
         <v>10</v>
       </c>
       <c r="E357" s="5"/>
-      <c r="F357" s="9">
+      <c r="F357" s="8">
         <f>VLOOKUP(C357,ID!B:C,2,FALSE)</f>
         <v>860</v>
       </c>
@@ -13128,7 +13125,7 @@
         <v>15</v>
       </c>
       <c r="E358" s="5"/>
-      <c r="F358" s="9">
+      <c r="F358" s="8">
         <f>VLOOKUP(C358,ID!B:C,2,FALSE)</f>
         <v>796</v>
       </c>
@@ -13148,7 +13145,7 @@
         <v>15</v>
       </c>
       <c r="E359" s="5"/>
-      <c r="F359" s="9">
+      <c r="F359" s="8">
         <f>VLOOKUP(C359,ID!B:C,2,FALSE)</f>
         <v>1243</v>
       </c>
@@ -13168,7 +13165,7 @@
         <v>10</v>
       </c>
       <c r="E360" s="5"/>
-      <c r="F360" s="9">
+      <c r="F360" s="8">
         <f>VLOOKUP(C360,ID!B:C,2,FALSE)</f>
         <v>1374</v>
       </c>
@@ -13188,7 +13185,7 @@
         <v>30</v>
       </c>
       <c r="E361" s="5"/>
-      <c r="F361" s="9">
+      <c r="F361" s="8">
         <f>VLOOKUP(C361,ID!B:C,2,FALSE)</f>
         <v>398</v>
       </c>
@@ -13208,7 +13205,7 @@
         <v>34</v>
       </c>
       <c r="E362" s="5"/>
-      <c r="F362" s="9">
+      <c r="F362" s="8">
         <f>VLOOKUP(C362,ID!B:C,2,FALSE)</f>
         <v>801</v>
       </c>
@@ -13228,7 +13225,7 @@
         <v>20</v>
       </c>
       <c r="E363" s="5"/>
-      <c r="F363" s="9">
+      <c r="F363" s="8">
         <f>VLOOKUP(C363,ID!B:C,2,FALSE)</f>
         <v>800</v>
       </c>
@@ -13248,7 +13245,7 @@
         <v>250</v>
       </c>
       <c r="E364" s="5"/>
-      <c r="F364" s="9">
+      <c r="F364" s="8">
         <f>VLOOKUP(C364,ID!B:C,2,FALSE)</f>
         <v>823</v>
       </c>
@@ -13269,7 +13266,7 @@
         <v>125</v>
       </c>
       <c r="E365" s="5"/>
-      <c r="F365" s="9">
+      <c r="F365" s="8">
         <f>VLOOKUP(C365,ID!B:C,2,FALSE)</f>
         <v>479</v>
       </c>
@@ -13290,7 +13287,7 @@
         <v>170</v>
       </c>
       <c r="E366" s="5"/>
-      <c r="F366" s="9">
+      <c r="F366" s="8">
         <f>VLOOKUP(C366,ID!B:C,2,FALSE)</f>
         <v>484</v>
       </c>
@@ -13311,7 +13308,7 @@
         <v>750</v>
       </c>
       <c r="E367" s="5"/>
-      <c r="F367" s="9">
+      <c r="F367" s="8">
         <f>VLOOKUP(C367,ID!B:C,2,FALSE)</f>
         <v>126</v>
       </c>
@@ -13331,7 +13328,7 @@
         <v>220</v>
       </c>
       <c r="E368" s="5"/>
-      <c r="F368" s="9">
+      <c r="F368" s="8">
         <f>VLOOKUP(C368,ID!B:C,2,FALSE)</f>
         <v>826</v>
       </c>
@@ -13351,7 +13348,7 @@
         <v>75</v>
       </c>
       <c r="E369" s="6"/>
-      <c r="F369" s="9">
+      <c r="F369" s="8">
         <f>VLOOKUP(C369,ID!B:C,2,FALSE)</f>
         <v>1620</v>
       </c>
@@ -13371,7 +13368,7 @@
         <v>33</v>
       </c>
       <c r="E370" s="5"/>
-      <c r="F370" s="9">
+      <c r="F370" s="8">
         <f>VLOOKUP(C370,ID!B:C,2,FALSE)</f>
         <v>327</v>
       </c>
@@ -13392,7 +13389,7 @@
         <v>34</v>
       </c>
       <c r="E371" s="5"/>
-      <c r="F371" s="9">
+      <c r="F371" s="8">
         <f>VLOOKUP(C371,ID!B:C,2,FALSE)</f>
         <v>575</v>
       </c>
@@ -13413,7 +13410,7 @@
         <v>52</v>
       </c>
       <c r="E372" s="5"/>
-      <c r="F372" s="9">
+      <c r="F372" s="8">
         <f>VLOOKUP(C372,ID!B:C,2,FALSE)</f>
         <v>325</v>
       </c>
@@ -13434,7 +13431,7 @@
         <v>75</v>
       </c>
       <c r="E373" s="5"/>
-      <c r="F373" s="9">
+      <c r="F373" s="8">
         <f>VLOOKUP(C373,ID!B:C,2,FALSE)</f>
         <v>1427</v>
       </c>
@@ -13454,7 +13451,7 @@
         <v>3</v>
       </c>
       <c r="E374" s="5"/>
-      <c r="F374" s="9">
+      <c r="F374" s="8">
         <f>VLOOKUP(C374,ID!B:C,2,FALSE)</f>
         <v>619</v>
       </c>
@@ -13474,7 +13471,7 @@
         <v>80</v>
       </c>
       <c r="E375" s="5"/>
-      <c r="F375" s="9">
+      <c r="F375" s="8">
         <f>VLOOKUP(C375,ID!B:C,2,FALSE)</f>
         <v>368</v>
       </c>
@@ -13495,7 +13492,7 @@
         <v>450</v>
       </c>
       <c r="E376" s="5"/>
-      <c r="F376" s="9">
+      <c r="F376" s="8">
         <f>VLOOKUP(C376,ID!B:C,2,FALSE)</f>
         <v>313</v>
       </c>
@@ -13516,7 +13513,7 @@
         <v>500</v>
       </c>
       <c r="E377" s="5"/>
-      <c r="F377" s="9">
+      <c r="F377" s="8">
         <f>VLOOKUP(C377,ID!B:C,2,FALSE)</f>
         <v>311</v>
       </c>
@@ -13537,7 +13534,7 @@
         <v>175</v>
       </c>
       <c r="E378" s="5"/>
-      <c r="F378" s="9">
+      <c r="F378" s="8">
         <f>VLOOKUP(C378,ID!B:C,2,FALSE)</f>
         <v>618</v>
       </c>
@@ -13558,7 +13555,7 @@
         <v>250</v>
       </c>
       <c r="E379" s="5"/>
-      <c r="F379" s="9">
+      <c r="F379" s="8">
         <f>VLOOKUP(C379,ID!B:C,2,FALSE)</f>
         <v>312</v>
       </c>
@@ -13579,7 +13576,7 @@
         <v>125</v>
       </c>
       <c r="E380" s="5"/>
-      <c r="F380" s="9">
+      <c r="F380" s="8">
         <f>VLOOKUP(C380,ID!B:C,2,FALSE)</f>
         <v>1321</v>
       </c>
@@ -13599,7 +13596,7 @@
         <v>125</v>
       </c>
       <c r="E381" s="5"/>
-      <c r="F381" s="9">
+      <c r="F381" s="8">
         <f>VLOOKUP(C381,ID!B:C,2,FALSE)</f>
         <v>1344</v>
       </c>
@@ -13617,7 +13614,7 @@
         <v>25</v>
       </c>
       <c r="E382" s="5"/>
-      <c r="F382" s="9">
+      <c r="F382" s="8">
         <f>VLOOKUP(C382,ID!B:C,2,FALSE)</f>
         <v>1221</v>
       </c>
@@ -13635,7 +13632,7 @@
         <v>40</v>
       </c>
       <c r="E383" s="5"/>
-      <c r="F383" s="9">
+      <c r="F383" s="8">
         <f>VLOOKUP(C383,ID!B:C,2,FALSE)</f>
         <v>1193</v>
       </c>
@@ -13653,7 +13650,7 @@
         <v>15</v>
       </c>
       <c r="E384" s="5"/>
-      <c r="F384" s="9">
+      <c r="F384" s="8">
         <f>VLOOKUP(C384,ID!B:C,2,FALSE)</f>
         <v>851</v>
       </c>
@@ -13671,7 +13668,7 @@
         <v>70</v>
       </c>
       <c r="E385" s="5"/>
-      <c r="F385" s="9">
+      <c r="F385" s="8">
         <f>VLOOKUP(C385,ID!B:C,2,FALSE)</f>
         <v>1621</v>
       </c>
@@ -13691,7 +13688,7 @@
         <v>160</v>
       </c>
       <c r="E386" s="5"/>
-      <c r="F386" s="9">
+      <c r="F386" s="8">
         <f>VLOOKUP(C386,ID!B:C,2,FALSE)</f>
         <v>833</v>
       </c>
@@ -13712,7 +13709,7 @@
         <v>1000</v>
       </c>
       <c r="E387" s="5"/>
-      <c r="F387" s="9">
+      <c r="F387" s="8">
         <f>VLOOKUP(C387,ID!B:C,2,FALSE)</f>
         <v>834</v>
       </c>
@@ -13733,7 +13730,7 @@
         <v>500</v>
       </c>
       <c r="E388" s="5"/>
-      <c r="F388" s="9">
+      <c r="F388" s="8">
         <f>VLOOKUP(C388,ID!B:C,2,FALSE)</f>
         <v>314</v>
       </c>
@@ -13754,7 +13751,7 @@
         <v>230</v>
       </c>
       <c r="E389" s="5"/>
-      <c r="F389" s="9">
+      <c r="F389" s="8">
         <f>VLOOKUP(C389,ID!B:C,2,FALSE)</f>
         <v>315</v>
       </c>
@@ -13773,7 +13770,7 @@
         <v>100</v>
       </c>
       <c r="E390" s="5"/>
-      <c r="F390" s="9">
+      <c r="F390" s="8">
         <f>VLOOKUP(C390,ID!B:C,2,FALSE)</f>
         <v>1622</v>
       </c>
@@ -13793,7 +13790,7 @@
         <v>425</v>
       </c>
       <c r="E391" s="5"/>
-      <c r="F391" s="9">
+      <c r="F391" s="8">
         <f>VLOOKUP(C391,ID!B:C,2,FALSE)</f>
         <v>1623</v>
       </c>
@@ -13813,7 +13810,7 @@
         <v>650</v>
       </c>
       <c r="E392" s="5"/>
-      <c r="F392" s="9">
+      <c r="F392" s="8">
         <f>VLOOKUP(C392,ID!B:C,2,FALSE)</f>
         <v>318</v>
       </c>
@@ -13833,7 +13830,7 @@
         <v>240</v>
       </c>
       <c r="E393" s="5"/>
-      <c r="F393" s="9">
+      <c r="F393" s="8">
         <f>VLOOKUP(C393,ID!B:C,2,FALSE)</f>
         <v>317</v>
       </c>
@@ -13853,7 +13850,7 @@
         <v>400</v>
       </c>
       <c r="E394" s="5"/>
-      <c r="F394" s="9">
+      <c r="F394" s="8">
         <f>VLOOKUP(C394,ID!B:C,2,FALSE)</f>
         <v>320</v>
       </c>
@@ -13873,7 +13870,7 @@
         <v>500</v>
       </c>
       <c r="E395" s="5"/>
-      <c r="F395" s="9">
+      <c r="F395" s="8">
         <f>VLOOKUP(C395,ID!B:C,2,FALSE)</f>
         <v>1268</v>
       </c>
@@ -13893,7 +13890,7 @@
         <v>500</v>
       </c>
       <c r="E396" s="5"/>
-      <c r="F396" s="9">
+      <c r="F396" s="8">
         <f>VLOOKUP(C396,ID!B:C,2,FALSE)</f>
         <v>1624</v>
       </c>
@@ -13913,7 +13910,7 @@
         <v>210</v>
       </c>
       <c r="E397" s="5"/>
-      <c r="F397" s="9">
+      <c r="F397" s="8">
         <f>VLOOKUP(C397,ID!B:C,2,FALSE)</f>
         <v>1625</v>
       </c>
@@ -13933,7 +13930,7 @@
         <v>75</v>
       </c>
       <c r="E398" s="5"/>
-      <c r="F398" s="9">
+      <c r="F398" s="8">
         <f>VLOOKUP(C398,ID!B:C,2,FALSE)</f>
         <v>1626</v>
       </c>
@@ -13953,7 +13950,7 @@
         <v>225</v>
       </c>
       <c r="E399" s="5"/>
-      <c r="F399" s="9">
+      <c r="F399" s="8">
         <f>VLOOKUP(C399,ID!B:C,2,FALSE)</f>
         <v>1627</v>
       </c>
@@ -13973,7 +13970,7 @@
         <v>175</v>
       </c>
       <c r="E400" s="5"/>
-      <c r="F400" s="9">
+      <c r="F400" s="8">
         <f>VLOOKUP(C400,ID!B:C,2,FALSE)</f>
         <v>1628</v>
       </c>
@@ -13991,7 +13988,7 @@
         <v>35</v>
       </c>
       <c r="E401" s="5"/>
-      <c r="F401" s="9">
+      <c r="F401" s="8">
         <f>VLOOKUP(C401,ID!B:C,2,FALSE)</f>
         <v>1155</v>
       </c>
@@ -14011,7 +14008,7 @@
         <v>44</v>
       </c>
       <c r="E402" s="5"/>
-      <c r="F402" s="9">
+      <c r="F402" s="8">
         <f>VLOOKUP(C402,ID!B:C,2,FALSE)</f>
         <v>283</v>
       </c>
@@ -14031,7 +14028,7 @@
         <v>7</v>
       </c>
       <c r="E403" s="5"/>
-      <c r="F403" s="9">
+      <c r="F403" s="8">
         <f>VLOOKUP(C403,ID!B:C,2,FALSE)</f>
         <v>284</v>
       </c>
@@ -14051,7 +14048,7 @@
         <v>85</v>
       </c>
       <c r="E404" s="5"/>
-      <c r="F404" s="9">
+      <c r="F404" s="8">
         <f>VLOOKUP(C404,ID!B:C,2,FALSE)</f>
         <v>282</v>
       </c>
@@ -14071,7 +14068,7 @@
         <v>25</v>
       </c>
       <c r="E405" s="5"/>
-      <c r="F405" s="9">
+      <c r="F405" s="8">
         <f>VLOOKUP(C405,ID!B:C,2,FALSE)</f>
         <v>1488</v>
       </c>
@@ -14091,7 +14088,7 @@
         <v>230</v>
       </c>
       <c r="E406" s="5"/>
-      <c r="F406" s="9">
+      <c r="F406" s="8">
         <f>VLOOKUP(C406,ID!B:C,2,FALSE)</f>
         <v>280</v>
       </c>
@@ -14111,7 +14108,7 @@
         <v>40</v>
       </c>
       <c r="E407" s="5"/>
-      <c r="F407" s="9">
+      <c r="F407" s="8">
         <f>VLOOKUP(C407,ID!B:C,2,FALSE)</f>
         <v>1629</v>
       </c>
@@ -14131,7 +14128,7 @@
         <v>30</v>
       </c>
       <c r="E408" s="5"/>
-      <c r="F408" s="9">
+      <c r="F408" s="8">
         <f>VLOOKUP(C408,ID!B:C,2,FALSE)</f>
         <v>149</v>
       </c>
@@ -14151,7 +14148,7 @@
         <v>11</v>
       </c>
       <c r="E409" s="5"/>
-      <c r="F409" s="9">
+      <c r="F409" s="8">
         <f>VLOOKUP(C409,ID!B:C,2,FALSE)</f>
         <v>1630</v>
       </c>
@@ -14171,7 +14168,7 @@
         <v>14</v>
       </c>
       <c r="E410" s="5"/>
-      <c r="F410" s="9">
+      <c r="F410" s="8">
         <f>VLOOKUP(C410,ID!B:C,2,FALSE)</f>
         <v>334</v>
       </c>
@@ -14191,7 +14188,7 @@
         <v>250</v>
       </c>
       <c r="E411" s="5"/>
-      <c r="F411" s="9">
+      <c r="F411" s="8">
         <f>VLOOKUP(C411,ID!B:C,2,FALSE)</f>
         <v>332</v>
       </c>
@@ -14212,7 +14209,7 @@
         <v>19</v>
       </c>
       <c r="E412" s="5"/>
-      <c r="F412" s="9">
+      <c r="F412" s="8">
         <f>VLOOKUP(C412,ID!B:C,2,FALSE)</f>
         <v>1300</v>
       </c>
@@ -14232,7 +14229,7 @@
         <v>250</v>
       </c>
       <c r="E413" s="5"/>
-      <c r="F413" s="9">
+      <c r="F413" s="8">
         <f>VLOOKUP(C413,ID!B:C,2,FALSE)</f>
         <v>335</v>
       </c>
@@ -14253,7 +14250,7 @@
         <v>7</v>
       </c>
       <c r="E414" s="5"/>
-      <c r="F414" s="9">
+      <c r="F414" s="8">
         <f>VLOOKUP(C414,ID!B:C,2,FALSE)</f>
         <v>1381</v>
       </c>
@@ -14273,7 +14270,7 @@
         <v>25</v>
       </c>
       <c r="E415" s="5"/>
-      <c r="F415" s="9">
+      <c r="F415" s="8">
         <f>VLOOKUP(C415,ID!B:C,2,FALSE)</f>
         <v>104</v>
       </c>
@@ -14293,7 +14290,7 @@
         <v>30</v>
       </c>
       <c r="E416" s="5"/>
-      <c r="F416" s="9">
+      <c r="F416" s="8">
         <f>VLOOKUP(C416,ID!B:C,2,FALSE)</f>
         <v>1424</v>
       </c>
@@ -14313,7 +14310,7 @@
         <v>65</v>
       </c>
       <c r="E417" s="5"/>
-      <c r="F417" s="9">
+      <c r="F417" s="8">
         <f>VLOOKUP(C417,ID!B:C,2,FALSE)</f>
         <v>337</v>
       </c>
@@ -14333,7 +14330,7 @@
         <v>5</v>
       </c>
       <c r="E418" s="5"/>
-      <c r="F418" s="9">
+      <c r="F418" s="8">
         <f>VLOOKUP(C418,ID!B:C,2,FALSE)</f>
         <v>100</v>
       </c>
@@ -14353,7 +14350,7 @@
         <v>23</v>
       </c>
       <c r="E419" s="5"/>
-      <c r="F419" s="9">
+      <c r="F419" s="8">
         <f>VLOOKUP(C419,ID!B:C,2,FALSE)</f>
         <v>142</v>
       </c>
@@ -14373,7 +14370,7 @@
         <v>20</v>
       </c>
       <c r="E420" s="5"/>
-      <c r="F420" s="9">
+      <c r="F420" s="8">
         <f>VLOOKUP(C420,ID!B:C,2,FALSE)</f>
         <v>1631</v>
       </c>
@@ -14393,7 +14390,7 @@
         <v>60</v>
       </c>
       <c r="E421" s="5"/>
-      <c r="F421" s="9">
+      <c r="F421" s="8">
         <f>VLOOKUP(C421,ID!B:C,2,FALSE)</f>
         <v>1455</v>
       </c>
@@ -14413,7 +14410,7 @@
         <v>15</v>
       </c>
       <c r="E422" s="5"/>
-      <c r="F422" s="9">
+      <c r="F422" s="8">
         <f>VLOOKUP(C422,ID!B:C,2,FALSE)</f>
         <v>1176</v>
       </c>
@@ -14433,7 +14430,7 @@
         <v>5</v>
       </c>
       <c r="E423" s="5"/>
-      <c r="F423" s="9">
+      <c r="F423" s="8">
         <f>VLOOKUP(C423,ID!B:C,2,FALSE)</f>
         <v>1158</v>
       </c>
@@ -14453,7 +14450,7 @@
         <v>8</v>
       </c>
       <c r="E424" s="5"/>
-      <c r="F424" s="9">
+      <c r="F424" s="8">
         <f>VLOOKUP(C424,ID!B:C,2,FALSE)</f>
         <v>182</v>
       </c>
@@ -14473,7 +14470,7 @@
         <v>8</v>
       </c>
       <c r="E425" s="5"/>
-      <c r="F425" s="9">
+      <c r="F425" s="8">
         <f>VLOOKUP(C425,ID!B:C,2,FALSE)</f>
         <v>341</v>
       </c>
@@ -14493,7 +14490,7 @@
         <v>60</v>
       </c>
       <c r="E426" s="5"/>
-      <c r="F426" s="9">
+      <c r="F426" s="8">
         <f>VLOOKUP(C426,ID!B:C,2,FALSE)</f>
         <v>10</v>
       </c>
@@ -14513,7 +14510,7 @@
         <v>15</v>
       </c>
       <c r="E427" s="5"/>
-      <c r="F427" s="9">
+      <c r="F427" s="8">
         <f>VLOOKUP(C427,ID!B:C,2,FALSE)</f>
         <v>473</v>
       </c>
@@ -14533,7 +14530,7 @@
         <v>25</v>
       </c>
       <c r="E428" s="5"/>
-      <c r="F428" s="9">
+      <c r="F428" s="8">
         <f>VLOOKUP(C428,ID!B:C,2,FALSE)</f>
         <v>1080</v>
       </c>
@@ -14553,7 +14550,7 @@
         <v>40</v>
       </c>
       <c r="E429" s="5"/>
-      <c r="F429" s="9">
+      <c r="F429" s="8">
         <f>VLOOKUP(C429,ID!B:C,2,FALSE)</f>
         <v>11</v>
       </c>
@@ -14573,7 +14570,7 @@
         <v>60</v>
       </c>
       <c r="E430" s="5"/>
-      <c r="F430" s="9">
+      <c r="F430" s="8">
         <f>VLOOKUP(C430,ID!B:C,2,FALSE)</f>
         <v>1140</v>
       </c>
@@ -14593,7 +14590,7 @@
         <v>19</v>
       </c>
       <c r="E431" s="5"/>
-      <c r="F431" s="9">
+      <c r="F431" s="8">
         <f>VLOOKUP(C431,ID!B:C,2,FALSE)</f>
         <v>1227</v>
       </c>
@@ -14613,7 +14610,7 @@
         <v>35</v>
       </c>
       <c r="E432" s="5"/>
-      <c r="F432" s="9">
+      <c r="F432" s="8">
         <f>VLOOKUP(C432,ID!B:C,2,FALSE)</f>
         <v>503</v>
       </c>
@@ -14633,7 +14630,7 @@
         <v>26</v>
       </c>
       <c r="E433" s="5"/>
-      <c r="F433" s="9">
+      <c r="F433" s="8">
         <f>VLOOKUP(C433,ID!B:C,2,FALSE)</f>
         <v>1041</v>
       </c>
@@ -14653,7 +14650,7 @@
         <v>8</v>
       </c>
       <c r="E434" s="5"/>
-      <c r="F434" s="9">
+      <c r="F434" s="8">
         <f>VLOOKUP(C434,ID!B:C,2,FALSE)</f>
         <v>428</v>
       </c>
@@ -14673,7 +14670,7 @@
         <v>90</v>
       </c>
       <c r="E435" s="5"/>
-      <c r="F435" s="9">
+      <c r="F435" s="8">
         <f>VLOOKUP(C435,ID!B:C,2,FALSE)</f>
         <v>199</v>
       </c>
@@ -14694,7 +14691,7 @@
         <v>15</v>
       </c>
       <c r="E436" s="5"/>
-      <c r="F436" s="9">
+      <c r="F436" s="8">
         <f>VLOOKUP(C436,ID!B:C,2,FALSE)</f>
         <v>549</v>
       </c>
@@ -14714,7 +14711,7 @@
         <v>15</v>
       </c>
       <c r="E437" s="5"/>
-      <c r="F437" s="9">
+      <c r="F437" s="8">
         <f>VLOOKUP(C437,ID!B:C,2,FALSE)</f>
         <v>160</v>
       </c>
@@ -14734,7 +14731,7 @@
         <v>8</v>
       </c>
       <c r="E438" s="5"/>
-      <c r="F438" s="9">
+      <c r="F438" s="8">
         <f>VLOOKUP(C438,ID!B:C,2,FALSE)</f>
         <v>344</v>
       </c>
@@ -14754,7 +14751,7 @@
         <v>30</v>
       </c>
       <c r="E439" s="5"/>
-      <c r="F439" s="9">
+      <c r="F439" s="8">
         <f>VLOOKUP(C439,ID!B:C,2,FALSE)</f>
         <v>423</v>
       </c>
@@ -14774,7 +14771,7 @@
         <v>14</v>
       </c>
       <c r="E440" s="5"/>
-      <c r="F440" s="9">
+      <c r="F440" s="8">
         <f>VLOOKUP(C440,ID!B:C,2,FALSE)</f>
         <v>1632</v>
       </c>
@@ -14794,7 +14791,7 @@
         <v>45</v>
       </c>
       <c r="E441" s="5"/>
-      <c r="F441" s="9">
+      <c r="F441" s="8">
         <f>VLOOKUP(C441,ID!B:C,2,FALSE)</f>
         <v>345</v>
       </c>
@@ -14814,7 +14811,7 @@
         <v>50</v>
       </c>
       <c r="E442" s="5"/>
-      <c r="F442" s="9">
+      <c r="F442" s="8">
         <f>VLOOKUP(C442,ID!B:C,2,FALSE)</f>
         <v>1633</v>
       </c>
@@ -14834,7 +14831,7 @@
         <v>30</v>
       </c>
       <c r="E443" s="5"/>
-      <c r="F443" s="9">
+      <c r="F443" s="8">
         <f>VLOOKUP(C443,ID!B:C,2,FALSE)</f>
         <v>102</v>
       </c>
@@ -14854,7 +14851,7 @@
         <v>10</v>
       </c>
       <c r="E444" s="5"/>
-      <c r="F444" s="9">
+      <c r="F444" s="8">
         <f>VLOOKUP(C444,ID!B:C,2,FALSE)</f>
         <v>528</v>
       </c>
@@ -14874,7 +14871,7 @@
         <v>15</v>
       </c>
       <c r="E445" s="5"/>
-      <c r="F445" s="9">
+      <c r="F445" s="8">
         <f>VLOOKUP(C445,ID!B:C,2,FALSE)</f>
         <v>1634</v>
       </c>
@@ -14894,7 +14891,7 @@
         <v>86</v>
       </c>
       <c r="E446" s="5"/>
-      <c r="F446" s="9">
+      <c r="F446" s="8">
         <f>VLOOKUP(C446,ID!B:C,2,FALSE)</f>
         <v>27</v>
       </c>
@@ -14915,7 +14912,7 @@
         <v>84</v>
       </c>
       <c r="E447" s="5"/>
-      <c r="F447" s="9">
+      <c r="F447" s="8">
         <f>VLOOKUP(C447,ID!B:C,2,FALSE)</f>
         <v>348</v>
       </c>
@@ -14935,7 +14932,7 @@
         <v>17</v>
       </c>
       <c r="E448" s="5"/>
-      <c r="F448" s="9">
+      <c r="F448" s="8">
         <f>VLOOKUP(C448,ID!B:C,2,FALSE)</f>
         <v>816</v>
       </c>
@@ -14955,7 +14952,7 @@
         <v>50</v>
       </c>
       <c r="E449" s="5"/>
-      <c r="F449" s="9">
+      <c r="F449" s="8">
         <f>VLOOKUP(C449,ID!B:C,2,FALSE)</f>
         <v>603</v>
       </c>
@@ -14975,7 +14972,7 @@
         <v>220</v>
       </c>
       <c r="E450" s="5"/>
-      <c r="F450" s="9">
+      <c r="F450" s="8">
         <f>VLOOKUP(C450,ID!B:C,2,FALSE)</f>
         <v>817</v>
       </c>
@@ -14996,7 +14993,7 @@
         <v>15</v>
       </c>
       <c r="E451" s="5"/>
-      <c r="F451" s="9">
+      <c r="F451" s="8">
         <f>VLOOKUP(C451,ID!B:C,2,FALSE)</f>
         <v>42</v>
       </c>
@@ -15016,7 +15013,7 @@
         <v>45</v>
       </c>
       <c r="E452" s="5"/>
-      <c r="F452" s="9">
+      <c r="F452" s="8">
         <f>VLOOKUP(C452,ID!B:C,2,FALSE)</f>
         <v>66</v>
       </c>
@@ -15036,7 +15033,7 @@
         <v>29</v>
       </c>
       <c r="E453" s="5"/>
-      <c r="F453" s="9">
+      <c r="F453" s="8">
         <f>VLOOKUP(C453,ID!B:C,2,FALSE)</f>
         <v>1087</v>
       </c>
@@ -15056,7 +15053,7 @@
         <v>8</v>
       </c>
       <c r="E454" s="5"/>
-      <c r="F454" s="9">
+      <c r="F454" s="8">
         <f>VLOOKUP(C454,ID!B:C,2,FALSE)</f>
         <v>111</v>
       </c>
@@ -15076,7 +15073,7 @@
         <v>34</v>
       </c>
       <c r="E455" s="5"/>
-      <c r="F455" s="9">
+      <c r="F455" s="8">
         <f>VLOOKUP(C455,ID!B:C,2,FALSE)</f>
         <v>661</v>
       </c>
@@ -15097,7 +15094,7 @@
         <v>15</v>
       </c>
       <c r="E456" s="5"/>
-      <c r="F456" s="9">
+      <c r="F456" s="8">
         <f>VLOOKUP(C456,ID!B:C,2,FALSE)</f>
         <v>1635</v>
       </c>
@@ -15117,7 +15114,7 @@
         <v>14</v>
       </c>
       <c r="E457" s="5"/>
-      <c r="F457" s="9">
+      <c r="F457" s="8">
         <f>VLOOKUP(C457,ID!B:C,2,FALSE)</f>
         <v>1026</v>
       </c>
@@ -15137,7 +15134,7 @@
         <v>190</v>
       </c>
       <c r="E458" s="5"/>
-      <c r="F458" s="9">
+      <c r="F458" s="8">
         <f>VLOOKUP(C458,ID!B:C,2,FALSE)</f>
         <v>157</v>
       </c>
@@ -15158,7 +15155,7 @@
         <v>148</v>
       </c>
       <c r="E459" s="5"/>
-      <c r="F459" s="9">
+      <c r="F459" s="8">
         <f>VLOOKUP(C459,ID!B:C,2,FALSE)</f>
         <v>502</v>
       </c>
@@ -15178,7 +15175,7 @@
         <v>25</v>
       </c>
       <c r="E460" s="5"/>
-      <c r="F460" s="9">
+      <c r="F460" s="8">
         <f>VLOOKUP(C460,ID!B:C,2,FALSE)</f>
         <v>709</v>
       </c>
@@ -15198,7 +15195,7 @@
         <v>1750</v>
       </c>
       <c r="E461" s="5"/>
-      <c r="F461" s="9">
+      <c r="F461" s="8">
         <f>VLOOKUP(C461,ID!B:C,2,FALSE)</f>
         <v>129</v>
       </c>
@@ -15219,7 +15216,7 @@
         <v>30</v>
       </c>
       <c r="E462" s="5"/>
-      <c r="F462" s="9">
+      <c r="F462" s="8">
         <f>VLOOKUP(C462,ID!B:C,2,FALSE)</f>
         <v>458</v>
       </c>
@@ -15239,7 +15236,7 @@
         <v>15</v>
       </c>
       <c r="E463" s="5"/>
-      <c r="F463" s="9">
+      <c r="F463" s="8">
         <f>VLOOKUP(C463,ID!B:C,2,FALSE)</f>
         <v>506</v>
       </c>
@@ -15259,7 +15256,7 @@
         <v>10</v>
       </c>
       <c r="E464" s="5"/>
-      <c r="F464" s="9">
+      <c r="F464" s="8">
         <f>VLOOKUP(C464,ID!B:C,2,FALSE)</f>
         <v>1042</v>
       </c>
@@ -15279,7 +15276,7 @@
         <v>250</v>
       </c>
       <c r="E465" s="5"/>
-      <c r="F465" s="9">
+      <c r="F465" s="8">
         <f>VLOOKUP(C465,ID!B:C,2,FALSE)</f>
         <v>819</v>
       </c>
@@ -15299,7 +15296,7 @@
         <v>5</v>
       </c>
       <c r="E466" s="5"/>
-      <c r="F466" s="9">
+      <c r="F466" s="8">
         <f>VLOOKUP(C466,ID!B:C,2,FALSE)</f>
         <v>207</v>
       </c>
@@ -15319,7 +15316,7 @@
         <v>29</v>
       </c>
       <c r="E467" s="5"/>
-      <c r="F467" s="9">
+      <c r="F467" s="8">
         <f>VLOOKUP(C467,ID!B:C,2,FALSE)</f>
         <v>207</v>
       </c>
@@ -15339,7 +15336,7 @@
         <v>50</v>
       </c>
       <c r="E468" s="5"/>
-      <c r="F468" s="9">
+      <c r="F468" s="8">
         <f>VLOOKUP(C468,ID!B:C,2,FALSE)</f>
         <v>1636</v>
       </c>
@@ -15359,7 +15356,7 @@
         <v>11</v>
       </c>
       <c r="E469" s="5"/>
-      <c r="F469" s="9">
+      <c r="F469" s="8">
         <f>VLOOKUP(C469,ID!B:C,2,FALSE)</f>
         <v>171</v>
       </c>
@@ -15379,7 +15376,7 @@
         <v>165</v>
       </c>
       <c r="E470" s="5"/>
-      <c r="F470" s="9">
+      <c r="F470" s="8">
         <f>VLOOKUP(C470,ID!B:C,2,FALSE)</f>
         <v>43</v>
       </c>
@@ -15399,7 +15396,7 @@
         <v>8</v>
       </c>
       <c r="E471" s="5"/>
-      <c r="F471" s="9">
+      <c r="F471" s="8">
         <f>VLOOKUP(C471,ID!B:C,2,FALSE)</f>
         <v>352</v>
       </c>
@@ -15419,7 +15416,7 @@
         <v>5</v>
       </c>
       <c r="E472" s="5"/>
-      <c r="F472" s="9">
+      <c r="F472" s="8">
         <f>VLOOKUP(C472,ID!B:C,2,FALSE)</f>
         <v>439</v>
       </c>
@@ -15439,7 +15436,7 @@
         <v>7</v>
       </c>
       <c r="E473" s="5"/>
-      <c r="F473" s="9">
+      <c r="F473" s="8">
         <f>VLOOKUP(C473,ID!B:C,2,FALSE)</f>
         <v>1241</v>
       </c>
@@ -15459,7 +15456,7 @@
         <v>4</v>
       </c>
       <c r="E474" s="5"/>
-      <c r="F474" s="9">
+      <c r="F474" s="8">
         <f>VLOOKUP(C474,ID!B:C,2,FALSE)</f>
         <v>25</v>
       </c>
@@ -15479,7 +15476,7 @@
         <v>50</v>
       </c>
       <c r="E475" s="5"/>
-      <c r="F475" s="9">
+      <c r="F475" s="8">
         <f>VLOOKUP(C475,ID!B:C,2,FALSE)</f>
         <v>822</v>
       </c>
@@ -15499,7 +15496,7 @@
         <v>81</v>
       </c>
       <c r="E476" s="5"/>
-      <c r="F476" s="9">
+      <c r="F476" s="8">
         <f>VLOOKUP(C476,ID!B:C,2,FALSE)</f>
         <v>510</v>
       </c>
@@ -15519,7 +15516,7 @@
         <v>12</v>
       </c>
       <c r="E477" s="5"/>
-      <c r="F477" s="9">
+      <c r="F477" s="8">
         <f>VLOOKUP(C477,ID!B:C,2,FALSE)</f>
         <v>1503</v>
       </c>
@@ -15539,7 +15536,7 @@
         <v>35</v>
       </c>
       <c r="E478" s="5"/>
-      <c r="F478" s="9">
+      <c r="F478" s="8">
         <f>VLOOKUP(C478,ID!B:C,2,FALSE)</f>
         <v>1294</v>
       </c>
@@ -15559,7 +15556,7 @@
         <v>32</v>
       </c>
       <c r="E479" s="5"/>
-      <c r="F479" s="9">
+      <c r="F479" s="8">
         <f>VLOOKUP(C479,ID!B:C,2,FALSE)</f>
         <v>131</v>
       </c>
@@ -15579,7 +15576,7 @@
         <v>30</v>
       </c>
       <c r="E480" s="5"/>
-      <c r="F480" s="9">
+      <c r="F480" s="8">
         <f>VLOOKUP(C480,ID!B:C,2,FALSE)</f>
         <v>9</v>
       </c>
@@ -15599,7 +15596,7 @@
         <v>25</v>
       </c>
       <c r="E481" s="5"/>
-      <c r="F481" s="9">
+      <c r="F481" s="8">
         <f>VLOOKUP(C481,ID!B:C,2,FALSE)</f>
         <v>141</v>
       </c>
@@ -15619,7 +15616,7 @@
         <v>10</v>
       </c>
       <c r="E482" s="5"/>
-      <c r="F482" s="9">
+      <c r="F482" s="8">
         <f>VLOOKUP(C482,ID!B:C,2,FALSE)</f>
         <v>132</v>
       </c>
@@ -15639,7 +15636,7 @@
         <v>50</v>
       </c>
       <c r="E483" s="5"/>
-      <c r="F483" s="9">
+      <c r="F483" s="8">
         <f>VLOOKUP(C483,ID!B:C,2,FALSE)</f>
         <v>204</v>
       </c>
@@ -15659,7 +15656,7 @@
         <v>5</v>
       </c>
       <c r="E484" s="5"/>
-      <c r="F484" s="9">
+      <c r="F484" s="8">
         <f>VLOOKUP(C484,ID!B:C,2,FALSE)</f>
         <v>1319</v>
       </c>
@@ -15679,7 +15676,7 @@
         <v>148</v>
       </c>
       <c r="E485" s="5"/>
-      <c r="F485" s="9">
+      <c r="F485" s="8">
         <f>VLOOKUP(C485,ID!B:C,2,FALSE)</f>
         <v>948</v>
       </c>
@@ -15699,7 +15696,7 @@
         <v>200</v>
       </c>
       <c r="E486" s="5"/>
-      <c r="F486" s="9">
+      <c r="F486" s="8">
         <f>VLOOKUP(C486,ID!B:C,2,FALSE)</f>
         <v>647</v>
       </c>
@@ -15720,7 +15717,7 @@
         <v>70</v>
       </c>
       <c r="E487" s="5"/>
-      <c r="F487" s="9">
+      <c r="F487" s="8">
         <f>VLOOKUP(C487,ID!B:C,2,FALSE)</f>
         <v>206</v>
       </c>
@@ -15740,7 +15737,7 @@
         <v>58</v>
       </c>
       <c r="E488" s="5"/>
-      <c r="F488" s="9">
+      <c r="F488" s="8">
         <f>VLOOKUP(C488,ID!B:C,2,FALSE)</f>
         <v>168</v>
       </c>
@@ -15760,7 +15757,7 @@
         <v>4</v>
       </c>
       <c r="E489" s="5"/>
-      <c r="F489" s="9">
+      <c r="F489" s="8">
         <f>VLOOKUP(C489,ID!B:C,2,FALSE)</f>
         <v>44</v>
       </c>
@@ -15780,7 +15777,7 @@
         <v>15</v>
       </c>
       <c r="E490" s="5"/>
-      <c r="F490" s="9">
+      <c r="F490" s="8">
         <f>VLOOKUP(C490,ID!B:C,2,FALSE)</f>
         <v>112</v>
       </c>
@@ -15800,7 +15797,7 @@
         <v>9</v>
       </c>
       <c r="E491" s="5"/>
-      <c r="F491" s="9">
+      <c r="F491" s="8">
         <f>VLOOKUP(C491,ID!B:C,2,FALSE)</f>
         <v>435</v>
       </c>
@@ -15820,7 +15817,7 @@
         <v>30</v>
       </c>
       <c r="E492" s="5"/>
-      <c r="F492" s="9">
+      <c r="F492" s="8">
         <f>VLOOKUP(C492,ID!B:C,2,FALSE)</f>
         <v>438</v>
       </c>
@@ -15840,7 +15837,7 @@
         <v>22</v>
       </c>
       <c r="E493" s="5"/>
-      <c r="F493" s="9">
+      <c r="F493" s="8">
         <f>VLOOKUP(C493,ID!B:C,2,FALSE)</f>
         <v>1637</v>
       </c>
@@ -15860,7 +15857,7 @@
         <v>30</v>
       </c>
       <c r="E494" s="5"/>
-      <c r="F494" s="9">
+      <c r="F494" s="8">
         <f>VLOOKUP(C494,ID!B:C,2,FALSE)</f>
         <v>92</v>
       </c>
@@ -15880,7 +15877,7 @@
         <v>40</v>
       </c>
       <c r="E495" s="5"/>
-      <c r="F495" s="9">
+      <c r="F495" s="8">
         <f>VLOOKUP(C495,ID!B:C,2,FALSE)</f>
         <v>356</v>
       </c>
@@ -15900,7 +15897,7 @@
         <v>146</v>
       </c>
       <c r="E496" s="5"/>
-      <c r="F496" s="9">
+      <c r="F496" s="8">
         <f>VLOOKUP(C496,ID!B:C,2,FALSE)</f>
         <v>874</v>
       </c>
@@ -15921,7 +15918,7 @@
         <v>30</v>
       </c>
       <c r="E497" s="5"/>
-      <c r="F497" s="9">
+      <c r="F497" s="8">
         <f>VLOOKUP(C497,ID!B:C,2,FALSE)</f>
         <v>466</v>
       </c>
@@ -15941,7 +15938,7 @@
         <v>20</v>
       </c>
       <c r="E498" s="5"/>
-      <c r="F498" s="9">
+      <c r="F498" s="8">
         <f>VLOOKUP(C498,ID!B:C,2,FALSE)</f>
         <v>713</v>
       </c>
@@ -15961,7 +15958,7 @@
         <v>4</v>
       </c>
       <c r="E499" s="5"/>
-      <c r="F499" s="9">
+      <c r="F499" s="8">
         <f>VLOOKUP(C499,ID!B:C,2,FALSE)</f>
         <v>488</v>
       </c>
@@ -15981,7 +15978,7 @@
         <v>13</v>
       </c>
       <c r="E500" s="5"/>
-      <c r="F500" s="9">
+      <c r="F500" s="8">
         <f>VLOOKUP(C500,ID!B:C,2,FALSE)</f>
         <v>724</v>
       </c>
@@ -16001,7 +15998,7 @@
         <v>5</v>
       </c>
       <c r="E501" s="5"/>
-      <c r="F501" s="9">
+      <c r="F501" s="8">
         <f>VLOOKUP(C501,ID!B:C,2,FALSE)</f>
         <v>213</v>
       </c>
@@ -16021,7 +16018,7 @@
         <v>19</v>
       </c>
       <c r="E502" s="5"/>
-      <c r="F502" s="9">
+      <c r="F502" s="8">
         <f>VLOOKUP(C502,ID!B:C,2,FALSE)</f>
         <v>491</v>
       </c>
@@ -16041,7 +16038,7 @@
         <v>15</v>
       </c>
       <c r="E503" s="5"/>
-      <c r="F503" s="9">
+      <c r="F503" s="8">
         <f>VLOOKUP(C503,ID!B:C,2,FALSE)</f>
         <v>163</v>
       </c>
@@ -16061,7 +16058,7 @@
         <v>25</v>
       </c>
       <c r="E504" s="5"/>
-      <c r="F504" s="9">
+      <c r="F504" s="8">
         <f>VLOOKUP(C504,ID!B:C,2,FALSE)</f>
         <v>837</v>
       </c>
@@ -16081,7 +16078,7 @@
         <v>5</v>
       </c>
       <c r="E505" s="5"/>
-      <c r="F505" s="9">
+      <c r="F505" s="8">
         <f>VLOOKUP(C505,ID!B:C,2,FALSE)</f>
         <v>360</v>
       </c>
@@ -16101,7 +16098,7 @@
         <v>50</v>
       </c>
       <c r="E506" s="5"/>
-      <c r="F506" s="9">
+      <c r="F506" s="8">
         <f>VLOOKUP(C506,ID!B:C,2,FALSE)</f>
         <v>362</v>
       </c>
@@ -16121,7 +16118,7 @@
         <v>125</v>
       </c>
       <c r="E507" s="5"/>
-      <c r="F507" s="9">
+      <c r="F507" s="8">
         <f>VLOOKUP(C507,ID!B:C,2,FALSE)</f>
         <v>830</v>
       </c>
@@ -16142,7 +16139,7 @@
         <v>10</v>
       </c>
       <c r="E508" s="5"/>
-      <c r="F508" s="9">
+      <c r="F508" s="8">
         <f>VLOOKUP(C508,ID!B:C,2,FALSE)</f>
         <v>1638</v>
       </c>
@@ -16162,7 +16159,7 @@
         <v>248</v>
       </c>
       <c r="E509" s="5"/>
-      <c r="F509" s="9">
+      <c r="F509" s="8">
         <f>VLOOKUP(C509,ID!B:C,2,FALSE)</f>
         <v>1639</v>
       </c>
@@ -16182,7 +16179,7 @@
         <v>15</v>
       </c>
       <c r="E510" s="5"/>
-      <c r="F510" s="9">
+      <c r="F510" s="8">
         <f>VLOOKUP(C510,ID!B:C,2,FALSE)</f>
         <v>1640</v>
       </c>
@@ -16202,7 +16199,7 @@
         <v>5</v>
       </c>
       <c r="E511" s="5"/>
-      <c r="F511" s="9">
+      <c r="F511" s="8">
         <f>VLOOKUP(C511,ID!B:C,2,FALSE)</f>
         <v>1641</v>
       </c>

--- a/用紙管理/06_在庫登録/令和６年在庫一覧1228現在.xlsx
+++ b/用紙管理/06_在庫登録/令和６年在庫一覧1228現在.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\06_在庫登録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A6DC0F-EC59-409B-9F62-FA57EAEC4708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209A497-5467-4897-A8F3-565800AE468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{008265DB-598C-417F-A875-29075EEBD992}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{008265DB-598C-417F-A875-29075EEBD992}"/>
   </bookViews>
   <sheets>
-    <sheet name="在庫1228" sheetId="1" r:id="rId1"/>
-    <sheet name="ID" sheetId="3" r:id="rId2"/>
+    <sheet name="csv" sheetId="4" r:id="rId1"/>
+    <sheet name="在庫1228" sheetId="1" r:id="rId2"/>
+    <sheet name="ID" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">在庫1228!$D$1:$D$511</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">在庫1228!$D$1:$D$511</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5872,11 +5873,4087 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940A601C-ED79-401B-80D0-D69E7B2C7947}">
+  <dimension ref="A1:B510"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B510"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>218</v>
+      </c>
+      <c r="B1" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1540</v>
+      </c>
+      <c r="B2" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1541</v>
+      </c>
+      <c r="B3" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1542</v>
+      </c>
+      <c r="B4" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>997</v>
+      </c>
+      <c r="B5" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1543</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1544</v>
+      </c>
+      <c r="B7" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>216</v>
+      </c>
+      <c r="B8" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>221</v>
+      </c>
+      <c r="B9" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>476</v>
+      </c>
+      <c r="B10" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>225</v>
+      </c>
+      <c r="B11" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1545</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>432</v>
+      </c>
+      <c r="B13" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>751</v>
+      </c>
+      <c r="B14" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>387</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>58</v>
+      </c>
+      <c r="B17" s="5">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>138</v>
+      </c>
+      <c r="B19" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>370</v>
+      </c>
+      <c r="B21" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>725</v>
+      </c>
+      <c r="B23" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>462</v>
+      </c>
+      <c r="B24" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>421</v>
+      </c>
+      <c r="B25" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>143</v>
+      </c>
+      <c r="B26" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>687</v>
+      </c>
+      <c r="B27" s="5">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>414</v>
+      </c>
+      <c r="B28" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>388</v>
+      </c>
+      <c r="B29" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>139</v>
+      </c>
+      <c r="B30" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>74</v>
+      </c>
+      <c r="B31" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>177</v>
+      </c>
+      <c r="B32" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1290</v>
+      </c>
+      <c r="B33" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1546</v>
+      </c>
+      <c r="B34" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>184</v>
+      </c>
+      <c r="B35" s="5">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>23</v>
+      </c>
+      <c r="B36" s="5">
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>59</v>
+      </c>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>56</v>
+      </c>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>72</v>
+      </c>
+      <c r="B40" s="5">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>229</v>
+      </c>
+      <c r="B41" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>114</v>
+      </c>
+      <c r="B42" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>79</v>
+      </c>
+      <c r="B43" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>1490</v>
+      </c>
+      <c r="B44" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>1181</v>
+      </c>
+      <c r="B45" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>550</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>60</v>
+      </c>
+      <c r="B47" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>1077</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>1422</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>230</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>231</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>134</v>
+      </c>
+      <c r="B52" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>588</v>
+      </c>
+      <c r="B53" s="5">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>541</v>
+      </c>
+      <c r="B54" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>767</v>
+      </c>
+      <c r="B55" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>766</v>
+      </c>
+      <c r="B56" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>96</v>
+      </c>
+      <c r="B57" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>208</v>
+      </c>
+      <c r="B58" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>232</v>
+      </c>
+      <c r="B59" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>233</v>
+      </c>
+      <c r="B60" s="5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>1547</v>
+      </c>
+      <c r="B61" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>1548</v>
+      </c>
+      <c r="B62" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>1549</v>
+      </c>
+      <c r="B63" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>780</v>
+      </c>
+      <c r="B64" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>782</v>
+      </c>
+      <c r="B65" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>412</v>
+      </c>
+      <c r="B66" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>653</v>
+      </c>
+      <c r="B67" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>237</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>1550</v>
+      </c>
+      <c r="B69" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>1551</v>
+      </c>
+      <c r="B70" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>1552</v>
+      </c>
+      <c r="B71" s="5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>1553</v>
+      </c>
+      <c r="B72" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>239</v>
+      </c>
+      <c r="B73" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>238</v>
+      </c>
+      <c r="B74" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>30</v>
+      </c>
+      <c r="B75" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>125</v>
+      </c>
+      <c r="B76" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>201</v>
+      </c>
+      <c r="B77" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>374</v>
+      </c>
+      <c r="B78" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>1325</v>
+      </c>
+      <c r="B79" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>241</v>
+      </c>
+      <c r="B80" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>743</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>99</v>
+      </c>
+      <c r="B82" s="5">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>1554</v>
+      </c>
+      <c r="B83" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>145</v>
+      </c>
+      <c r="B84" s="5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>116</v>
+      </c>
+      <c r="B85" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86" s="5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>247</v>
+      </c>
+      <c r="B87" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="B88" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>39</v>
+      </c>
+      <c r="B90" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>46</v>
+      </c>
+      <c r="B91" s="5">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>147</v>
+      </c>
+      <c r="B92" s="5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>130</v>
+      </c>
+      <c r="B93" s="5">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>39</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>551</v>
+      </c>
+      <c r="B95" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>76</v>
+      </c>
+      <c r="B96" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>242</v>
+      </c>
+      <c r="B97" s="5">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>623</v>
+      </c>
+      <c r="B98" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>198</v>
+      </c>
+      <c r="B99" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>1555</v>
+      </c>
+      <c r="B100" s="7"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>1067</v>
+      </c>
+      <c r="B101" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>110</v>
+      </c>
+      <c r="B102" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>109</v>
+      </c>
+      <c r="B103" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>913</v>
+      </c>
+      <c r="B104" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>576</v>
+      </c>
+      <c r="B105" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>778</v>
+      </c>
+      <c r="B106" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>939</v>
+      </c>
+      <c r="B107" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>422</v>
+      </c>
+      <c r="B108" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>250</v>
+      </c>
+      <c r="B109" s="5">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>252</v>
+      </c>
+      <c r="B110" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>41</v>
+      </c>
+      <c r="B111" s="5">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>705</v>
+      </c>
+      <c r="B112" s="5">
+        <v>9830</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>696</v>
+      </c>
+      <c r="B113" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>78</v>
+      </c>
+      <c r="B114" s="5">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>461</v>
+      </c>
+      <c r="B115" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>154</v>
+      </c>
+      <c r="B116" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>257</v>
+      </c>
+      <c r="B117" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>258</v>
+      </c>
+      <c r="B118" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>437</v>
+      </c>
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>365</v>
+      </c>
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>1050</v>
+      </c>
+      <c r="B121" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>699</v>
+      </c>
+      <c r="B122" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>697</v>
+      </c>
+      <c r="B123" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>698</v>
+      </c>
+      <c r="B124" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>174</v>
+      </c>
+      <c r="B125" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>98</v>
+      </c>
+      <c r="B126" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>118</v>
+      </c>
+      <c r="B127" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>594</v>
+      </c>
+      <c r="B128" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>1061</v>
+      </c>
+      <c r="B129" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>1270</v>
+      </c>
+      <c r="B130" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>254</v>
+      </c>
+      <c r="B131" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>783</v>
+      </c>
+      <c r="B132" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>460</v>
+      </c>
+      <c r="B133" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>28</v>
+      </c>
+      <c r="B134" s="5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>255</v>
+      </c>
+      <c r="B135" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>75</v>
+      </c>
+      <c r="B136" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>117</v>
+      </c>
+      <c r="B137" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>1024</v>
+      </c>
+      <c r="B138" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>795</v>
+      </c>
+      <c r="B139" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>562</v>
+      </c>
+      <c r="B140" s="7"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>665</v>
+      </c>
+      <c r="B141" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>1556</v>
+      </c>
+      <c r="B142" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>418</v>
+      </c>
+      <c r="B143" s="5">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>744</v>
+      </c>
+      <c r="B144" s="5">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>400</v>
+      </c>
+      <c r="B145" s="5">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>1458</v>
+      </c>
+      <c r="B146" s="5">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>1331</v>
+      </c>
+      <c r="B147" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>1510</v>
+      </c>
+      <c r="B148" s="5">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>415</v>
+      </c>
+      <c r="B149" s="5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>1557</v>
+      </c>
+      <c r="B150" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>741</v>
+      </c>
+      <c r="B151" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>1558</v>
+      </c>
+      <c r="B152" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>1559</v>
+      </c>
+      <c r="B153" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>263</v>
+      </c>
+      <c r="B154" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>264</v>
+      </c>
+      <c r="B155" s="5">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>1189</v>
+      </c>
+      <c r="B156" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>936</v>
+      </c>
+      <c r="B157" s="5">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>265</v>
+      </c>
+      <c r="B158" s="5">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>1123</v>
+      </c>
+      <c r="B159" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>266</v>
+      </c>
+      <c r="B160" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>167</v>
+      </c>
+      <c r="B161" s="5">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>1125</v>
+      </c>
+      <c r="B162" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>610</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>832</v>
+      </c>
+      <c r="B164" s="5">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>269</v>
+      </c>
+      <c r="B165" s="5">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>268</v>
+      </c>
+      <c r="B166" s="5">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>51</v>
+      </c>
+      <c r="B167" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>86</v>
+      </c>
+      <c r="B168" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>1560</v>
+      </c>
+      <c r="B169" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>26</v>
+      </c>
+      <c r="B170" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>20</v>
+      </c>
+      <c r="B171" s="5">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>31</v>
+      </c>
+      <c r="B172" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>84</v>
+      </c>
+      <c r="B173" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>485</v>
+      </c>
+      <c r="B174" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>644</v>
+      </c>
+      <c r="B175" s="5">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>270</v>
+      </c>
+      <c r="B176" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>1561</v>
+      </c>
+      <c r="B177" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>1562</v>
+      </c>
+      <c r="B178" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>17</v>
+      </c>
+      <c r="B179" s="6">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>1563</v>
+      </c>
+      <c r="B180" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>1564</v>
+      </c>
+      <c r="B181" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>1471</v>
+      </c>
+      <c r="B182" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>1313</v>
+      </c>
+      <c r="B183" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>727</v>
+      </c>
+      <c r="B184" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>726</v>
+      </c>
+      <c r="B185" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>728</v>
+      </c>
+      <c r="B186" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>675</v>
+      </c>
+      <c r="B187" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>1117</v>
+      </c>
+      <c r="B188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>871</v>
+      </c>
+      <c r="B189" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>857</v>
+      </c>
+      <c r="B190" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>729</v>
+      </c>
+      <c r="B191" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>1565</v>
+      </c>
+      <c r="B192" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>1566</v>
+      </c>
+      <c r="B193" s="5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>1567</v>
+      </c>
+      <c r="B194" s="5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>1501</v>
+      </c>
+      <c r="B195" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>1048</v>
+      </c>
+      <c r="B196" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>1568</v>
+      </c>
+      <c r="B197" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>1569</v>
+      </c>
+      <c r="B198" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>1570</v>
+      </c>
+      <c r="B199" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>1571</v>
+      </c>
+      <c r="B200" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>108</v>
+      </c>
+      <c r="B201" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>1572</v>
+      </c>
+      <c r="B202" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>1573</v>
+      </c>
+      <c r="B203" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>1574</v>
+      </c>
+      <c r="B204" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>1575</v>
+      </c>
+      <c r="B205" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>1576</v>
+      </c>
+      <c r="B206" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>1577</v>
+      </c>
+      <c r="B207" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>1578</v>
+      </c>
+      <c r="B208" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>1579</v>
+      </c>
+      <c r="B209" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>1580</v>
+      </c>
+      <c r="B210" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>1581</v>
+      </c>
+      <c r="B211" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>524</v>
+      </c>
+      <c r="B212" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>947</v>
+      </c>
+      <c r="B213" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>1582</v>
+      </c>
+      <c r="B214" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>1583</v>
+      </c>
+      <c r="B215" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>1389</v>
+      </c>
+      <c r="B216" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>273</v>
+      </c>
+      <c r="B217" s="5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>1584</v>
+      </c>
+      <c r="B218" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>1585</v>
+      </c>
+      <c r="B219" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>1586</v>
+      </c>
+      <c r="B220" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>1587</v>
+      </c>
+      <c r="B221" s="5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>372</v>
+      </c>
+      <c r="B222" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>275</v>
+      </c>
+      <c r="B223" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>1588</v>
+      </c>
+      <c r="B224" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>703</v>
+      </c>
+      <c r="B225" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>278</v>
+      </c>
+      <c r="B226" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>279</v>
+      </c>
+      <c r="B227" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>655</v>
+      </c>
+      <c r="B228" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>878</v>
+      </c>
+      <c r="B229" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>1425</v>
+      </c>
+      <c r="B230" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>1589</v>
+      </c>
+      <c r="B231" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>746</v>
+      </c>
+      <c r="B232" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>1027</v>
+      </c>
+      <c r="B233" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>492</v>
+      </c>
+      <c r="B234" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>607</v>
+      </c>
+      <c r="B235" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>570</v>
+      </c>
+      <c r="B236" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>186</v>
+      </c>
+      <c r="B237" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>942</v>
+      </c>
+      <c r="B238" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>802</v>
+      </c>
+      <c r="B239" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>1590</v>
+      </c>
+      <c r="B240" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>425</v>
+      </c>
+      <c r="B241" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>806</v>
+      </c>
+      <c r="B242" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>1591</v>
+      </c>
+      <c r="B243" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244">
+        <v>805</v>
+      </c>
+      <c r="B244" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245">
+        <v>747</v>
+      </c>
+      <c r="B245" s="5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246">
+        <v>397</v>
+      </c>
+      <c r="B246" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247">
+        <v>287</v>
+      </c>
+      <c r="B247" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A248">
+        <v>455</v>
+      </c>
+      <c r="B248" s="5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A249">
+        <v>937</v>
+      </c>
+      <c r="B249" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>1592</v>
+      </c>
+      <c r="B250" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>748</v>
+      </c>
+      <c r="B251" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A252">
+        <v>1593</v>
+      </c>
+      <c r="B252" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A253">
+        <v>467</v>
+      </c>
+      <c r="B253" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A254">
+        <v>290</v>
+      </c>
+      <c r="B254" s="5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A255">
+        <v>1594</v>
+      </c>
+      <c r="B255" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A256">
+        <v>1595</v>
+      </c>
+      <c r="B256" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A257">
+        <v>1596</v>
+      </c>
+      <c r="B257" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A258">
+        <v>289</v>
+      </c>
+      <c r="B258" s="5">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>493</v>
+      </c>
+      <c r="B259" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>1597</v>
+      </c>
+      <c r="B260" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>288</v>
+      </c>
+      <c r="B261" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>446</v>
+      </c>
+      <c r="B262" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>452</v>
+      </c>
+      <c r="B263" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>1598</v>
+      </c>
+      <c r="B264" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>1049</v>
+      </c>
+      <c r="B265" s="5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A266">
+        <v>752</v>
+      </c>
+      <c r="B266" s="5">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A267">
+        <v>559</v>
+      </c>
+      <c r="B267" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A268">
+        <v>896</v>
+      </c>
+      <c r="B268" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A269">
+        <v>625</v>
+      </c>
+      <c r="B269" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A270">
+        <v>761</v>
+      </c>
+      <c r="B270" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>866</v>
+      </c>
+      <c r="B271" s="7"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A272">
+        <v>693</v>
+      </c>
+      <c r="B272" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A273">
+        <v>1599</v>
+      </c>
+      <c r="B273" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A274">
+        <v>1600</v>
+      </c>
+      <c r="B274" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A275">
+        <v>666</v>
+      </c>
+      <c r="B275" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A276">
+        <v>1601</v>
+      </c>
+      <c r="B276" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A277">
+        <v>1602</v>
+      </c>
+      <c r="B277" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A278">
+        <v>1603</v>
+      </c>
+      <c r="B278" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A279">
+        <v>1604</v>
+      </c>
+      <c r="B279" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A280">
+        <v>915</v>
+      </c>
+      <c r="B280" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A281">
+        <v>1468</v>
+      </c>
+      <c r="B281" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A282">
+        <v>586</v>
+      </c>
+      <c r="B282" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A283">
+        <v>935</v>
+      </c>
+      <c r="B283" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A284">
+        <v>1605</v>
+      </c>
+      <c r="B284" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A285">
+        <v>686</v>
+      </c>
+      <c r="B285" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A286">
+        <v>459</v>
+      </c>
+      <c r="B286" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A287">
+        <v>564</v>
+      </c>
+      <c r="B287" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A288">
+        <v>1372</v>
+      </c>
+      <c r="B288" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>1145</v>
+      </c>
+      <c r="B289" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>379</v>
+      </c>
+      <c r="B290" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A291">
+        <v>722</v>
+      </c>
+      <c r="B291" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A292">
+        <v>1102</v>
+      </c>
+      <c r="B292" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>771</v>
+      </c>
+      <c r="B293" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A294">
+        <v>1606</v>
+      </c>
+      <c r="B294" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A295">
+        <v>291</v>
+      </c>
+      <c r="B295" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A296">
+        <v>772</v>
+      </c>
+      <c r="B296" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A297">
+        <v>1079</v>
+      </c>
+      <c r="B297" s="5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A298">
+        <v>1354</v>
+      </c>
+      <c r="B298" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A299">
+        <v>1446</v>
+      </c>
+      <c r="B299" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A300">
+        <v>285</v>
+      </c>
+      <c r="B300" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A301">
+        <v>1498</v>
+      </c>
+      <c r="B301" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A302">
+        <v>293</v>
+      </c>
+      <c r="B302" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A303">
+        <v>454</v>
+      </c>
+      <c r="B303" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A304">
+        <v>295</v>
+      </c>
+      <c r="B304" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A305">
+        <v>294</v>
+      </c>
+      <c r="B305" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A306">
+        <v>1118</v>
+      </c>
+      <c r="B306" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A307">
+        <v>1411</v>
+      </c>
+      <c r="B307" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A308">
+        <v>297</v>
+      </c>
+      <c r="B308" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A309">
+        <v>299</v>
+      </c>
+      <c r="B309" s="7"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A310">
+        <v>53</v>
+      </c>
+      <c r="B310" s="7"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A311">
+        <v>1607</v>
+      </c>
+      <c r="B311" s="5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A312">
+        <v>1608</v>
+      </c>
+      <c r="B312" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A313">
+        <v>1609</v>
+      </c>
+      <c r="B313" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A314">
+        <v>534</v>
+      </c>
+      <c r="B314" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A315">
+        <v>3</v>
+      </c>
+      <c r="B315" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A316">
+        <v>1610</v>
+      </c>
+      <c r="B316" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A317">
+        <v>300</v>
+      </c>
+      <c r="B317" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A318">
+        <v>1052</v>
+      </c>
+      <c r="B318" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A319">
+        <v>144</v>
+      </c>
+      <c r="B319" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A320">
+        <v>301</v>
+      </c>
+      <c r="B320" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A321">
+        <v>304</v>
+      </c>
+      <c r="B321" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A322">
+        <v>1611</v>
+      </c>
+      <c r="B322" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A323">
+        <v>786</v>
+      </c>
+      <c r="B323" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A324">
+        <v>1612</v>
+      </c>
+      <c r="B324" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A325">
+        <v>305</v>
+      </c>
+      <c r="B325" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A326">
+        <v>1292</v>
+      </c>
+      <c r="B326" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A327">
+        <v>307</v>
+      </c>
+      <c r="B327" s="5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A328">
+        <v>791</v>
+      </c>
+      <c r="B328" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A329">
+        <v>1613</v>
+      </c>
+      <c r="B329" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A330">
+        <v>306</v>
+      </c>
+      <c r="B330" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A331">
+        <v>1614</v>
+      </c>
+      <c r="B331" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A332">
+        <v>979</v>
+      </c>
+      <c r="B332" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A333">
+        <v>978</v>
+      </c>
+      <c r="B333" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A334">
+        <v>577</v>
+      </c>
+      <c r="B334" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A335">
+        <v>545</v>
+      </c>
+      <c r="B335" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A336">
+        <v>898</v>
+      </c>
+      <c r="B336" s="5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A337">
+        <v>1615</v>
+      </c>
+      <c r="B337" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A338">
+        <v>1616</v>
+      </c>
+      <c r="B338" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A339">
+        <v>1617</v>
+      </c>
+      <c r="B339" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A340">
+        <v>1618</v>
+      </c>
+      <c r="B340" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A341">
+        <v>1091</v>
+      </c>
+      <c r="B341" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A342">
+        <v>1099</v>
+      </c>
+      <c r="B342" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A343">
+        <v>1619</v>
+      </c>
+      <c r="B343" s="5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A344">
+        <v>640</v>
+      </c>
+      <c r="B344" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A345">
+        <v>35</v>
+      </c>
+      <c r="B345" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A346">
+        <v>175</v>
+      </c>
+      <c r="B346" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A347">
+        <v>384</v>
+      </c>
+      <c r="B347" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A348">
+        <v>308</v>
+      </c>
+      <c r="B348" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A349">
+        <v>203</v>
+      </c>
+      <c r="B349" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A350">
+        <v>798</v>
+      </c>
+      <c r="B350" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A351">
+        <v>398</v>
+      </c>
+      <c r="B351" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A352">
+        <v>309</v>
+      </c>
+      <c r="B352" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A353">
+        <v>1374</v>
+      </c>
+      <c r="B353" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A354">
+        <v>692</v>
+      </c>
+      <c r="B354" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A355">
+        <v>797</v>
+      </c>
+      <c r="B355" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A356">
+        <v>860</v>
+      </c>
+      <c r="B356" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A357">
+        <v>796</v>
+      </c>
+      <c r="B357" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A358">
+        <v>1243</v>
+      </c>
+      <c r="B358" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A359">
+        <v>1374</v>
+      </c>
+      <c r="B359" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A360">
+        <v>398</v>
+      </c>
+      <c r="B360" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A361">
+        <v>801</v>
+      </c>
+      <c r="B361" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A362">
+        <v>800</v>
+      </c>
+      <c r="B362" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A363">
+        <v>823</v>
+      </c>
+      <c r="B363" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A364">
+        <v>479</v>
+      </c>
+      <c r="B364" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A365">
+        <v>484</v>
+      </c>
+      <c r="B365" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A366">
+        <v>126</v>
+      </c>
+      <c r="B366" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A367">
+        <v>826</v>
+      </c>
+      <c r="B367" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A368">
+        <v>1620</v>
+      </c>
+      <c r="B368" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A369">
+        <v>327</v>
+      </c>
+      <c r="B369" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A370">
+        <v>575</v>
+      </c>
+      <c r="B370" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A371">
+        <v>325</v>
+      </c>
+      <c r="B371" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A372">
+        <v>1427</v>
+      </c>
+      <c r="B372" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A373">
+        <v>619</v>
+      </c>
+      <c r="B373" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A374">
+        <v>368</v>
+      </c>
+      <c r="B374" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A375">
+        <v>313</v>
+      </c>
+      <c r="B375" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A376">
+        <v>311</v>
+      </c>
+      <c r="B376" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A377">
+        <v>618</v>
+      </c>
+      <c r="B377" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A378">
+        <v>312</v>
+      </c>
+      <c r="B378" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A379">
+        <v>1321</v>
+      </c>
+      <c r="B379" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A380">
+        <v>1344</v>
+      </c>
+      <c r="B380" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A381">
+        <v>1221</v>
+      </c>
+      <c r="B381" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A382">
+        <v>1193</v>
+      </c>
+      <c r="B382" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A383">
+        <v>851</v>
+      </c>
+      <c r="B383" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A384">
+        <v>1621</v>
+      </c>
+      <c r="B384" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A385">
+        <v>833</v>
+      </c>
+      <c r="B385" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A386">
+        <v>834</v>
+      </c>
+      <c r="B386" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A387">
+        <v>314</v>
+      </c>
+      <c r="B387" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A388">
+        <v>315</v>
+      </c>
+      <c r="B388" s="5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A389">
+        <v>1622</v>
+      </c>
+      <c r="B389" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A390">
+        <v>1623</v>
+      </c>
+      <c r="B390" s="5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A391">
+        <v>318</v>
+      </c>
+      <c r="B391" s="5">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A392">
+        <v>317</v>
+      </c>
+      <c r="B392" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A393">
+        <v>320</v>
+      </c>
+      <c r="B393" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A394">
+        <v>1268</v>
+      </c>
+      <c r="B394" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A395">
+        <v>1624</v>
+      </c>
+      <c r="B395" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A396">
+        <v>1625</v>
+      </c>
+      <c r="B396" s="5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A397">
+        <v>1626</v>
+      </c>
+      <c r="B397" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A398">
+        <v>1627</v>
+      </c>
+      <c r="B398" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A399">
+        <v>1628</v>
+      </c>
+      <c r="B399" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A400">
+        <v>1155</v>
+      </c>
+      <c r="B400" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A401">
+        <v>283</v>
+      </c>
+      <c r="B401" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A402">
+        <v>284</v>
+      </c>
+      <c r="B402" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A403">
+        <v>282</v>
+      </c>
+      <c r="B403" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A404">
+        <v>1488</v>
+      </c>
+      <c r="B404" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A405">
+        <v>280</v>
+      </c>
+      <c r="B405" s="5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A406">
+        <v>1629</v>
+      </c>
+      <c r="B406" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A407">
+        <v>149</v>
+      </c>
+      <c r="B407" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A408">
+        <v>1630</v>
+      </c>
+      <c r="B408" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A409">
+        <v>334</v>
+      </c>
+      <c r="B409" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A410">
+        <v>332</v>
+      </c>
+      <c r="B410" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A411">
+        <v>1300</v>
+      </c>
+      <c r="B411" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A412">
+        <v>335</v>
+      </c>
+      <c r="B412" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A413">
+        <v>1381</v>
+      </c>
+      <c r="B413" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A414">
+        <v>104</v>
+      </c>
+      <c r="B414" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A415">
+        <v>1424</v>
+      </c>
+      <c r="B415" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A416">
+        <v>337</v>
+      </c>
+      <c r="B416" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A417">
+        <v>100</v>
+      </c>
+      <c r="B417" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A418">
+        <v>142</v>
+      </c>
+      <c r="B418" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A419">
+        <v>1631</v>
+      </c>
+      <c r="B419" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A420">
+        <v>1455</v>
+      </c>
+      <c r="B420" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A421">
+        <v>1176</v>
+      </c>
+      <c r="B421" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A422">
+        <v>1158</v>
+      </c>
+      <c r="B422" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A423">
+        <v>182</v>
+      </c>
+      <c r="B423" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A424">
+        <v>341</v>
+      </c>
+      <c r="B424" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A425">
+        <v>10</v>
+      </c>
+      <c r="B425" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A426">
+        <v>473</v>
+      </c>
+      <c r="B426" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A427">
+        <v>1080</v>
+      </c>
+      <c r="B427" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A428">
+        <v>11</v>
+      </c>
+      <c r="B428" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A429">
+        <v>1140</v>
+      </c>
+      <c r="B429" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A430">
+        <v>1227</v>
+      </c>
+      <c r="B430" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A431">
+        <v>503</v>
+      </c>
+      <c r="B431" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A432">
+        <v>1041</v>
+      </c>
+      <c r="B432" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A433">
+        <v>428</v>
+      </c>
+      <c r="B433" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A434">
+        <v>199</v>
+      </c>
+      <c r="B434" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A435">
+        <v>549</v>
+      </c>
+      <c r="B435" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A436">
+        <v>160</v>
+      </c>
+      <c r="B436" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A437">
+        <v>344</v>
+      </c>
+      <c r="B437" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A438">
+        <v>423</v>
+      </c>
+      <c r="B438" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A439">
+        <v>1632</v>
+      </c>
+      <c r="B439" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A440">
+        <v>345</v>
+      </c>
+      <c r="B440" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A441">
+        <v>1633</v>
+      </c>
+      <c r="B441" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A442">
+        <v>102</v>
+      </c>
+      <c r="B442" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A443">
+        <v>528</v>
+      </c>
+      <c r="B443" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A444">
+        <v>1634</v>
+      </c>
+      <c r="B444" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A445">
+        <v>27</v>
+      </c>
+      <c r="B445" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A446">
+        <v>348</v>
+      </c>
+      <c r="B446" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A447">
+        <v>816</v>
+      </c>
+      <c r="B447" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A448">
+        <v>603</v>
+      </c>
+      <c r="B448" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A449">
+        <v>817</v>
+      </c>
+      <c r="B449" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A450">
+        <v>42</v>
+      </c>
+      <c r="B450" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A451">
+        <v>66</v>
+      </c>
+      <c r="B451" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A452">
+        <v>1087</v>
+      </c>
+      <c r="B452" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A453">
+        <v>111</v>
+      </c>
+      <c r="B453" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A454">
+        <v>661</v>
+      </c>
+      <c r="B454" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A455">
+        <v>1635</v>
+      </c>
+      <c r="B455" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A456">
+        <v>1026</v>
+      </c>
+      <c r="B456" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A457">
+        <v>157</v>
+      </c>
+      <c r="B457" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A458">
+        <v>502</v>
+      </c>
+      <c r="B458" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A459">
+        <v>709</v>
+      </c>
+      <c r="B459" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A460">
+        <v>129</v>
+      </c>
+      <c r="B460" s="5">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A461">
+        <v>458</v>
+      </c>
+      <c r="B461" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A462">
+        <v>506</v>
+      </c>
+      <c r="B462" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A463">
+        <v>1042</v>
+      </c>
+      <c r="B463" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A464">
+        <v>819</v>
+      </c>
+      <c r="B464" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A465">
+        <v>207</v>
+      </c>
+      <c r="B465" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A466">
+        <v>207</v>
+      </c>
+      <c r="B466" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A467">
+        <v>1636</v>
+      </c>
+      <c r="B467" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A468">
+        <v>171</v>
+      </c>
+      <c r="B468" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A469">
+        <v>43</v>
+      </c>
+      <c r="B469" s="5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A470">
+        <v>352</v>
+      </c>
+      <c r="B470" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A471">
+        <v>439</v>
+      </c>
+      <c r="B471" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A472">
+        <v>1241</v>
+      </c>
+      <c r="B472" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A473">
+        <v>25</v>
+      </c>
+      <c r="B473" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A474">
+        <v>822</v>
+      </c>
+      <c r="B474" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A475">
+        <v>510</v>
+      </c>
+      <c r="B475" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A476">
+        <v>1503</v>
+      </c>
+      <c r="B476" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A477">
+        <v>1294</v>
+      </c>
+      <c r="B477" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A478">
+        <v>131</v>
+      </c>
+      <c r="B478" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A479">
+        <v>9</v>
+      </c>
+      <c r="B479" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A480">
+        <v>141</v>
+      </c>
+      <c r="B480" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A481">
+        <v>132</v>
+      </c>
+      <c r="B481" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A482">
+        <v>204</v>
+      </c>
+      <c r="B482" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A483">
+        <v>1319</v>
+      </c>
+      <c r="B483" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A484">
+        <v>948</v>
+      </c>
+      <c r="B484" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A485">
+        <v>647</v>
+      </c>
+      <c r="B485" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A486">
+        <v>206</v>
+      </c>
+      <c r="B486" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A487">
+        <v>168</v>
+      </c>
+      <c r="B487" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A488">
+        <v>44</v>
+      </c>
+      <c r="B488" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A489">
+        <v>112</v>
+      </c>
+      <c r="B489" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A490">
+        <v>435</v>
+      </c>
+      <c r="B490" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A491">
+        <v>438</v>
+      </c>
+      <c r="B491" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A492">
+        <v>1637</v>
+      </c>
+      <c r="B492" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A493">
+        <v>92</v>
+      </c>
+      <c r="B493" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A494">
+        <v>356</v>
+      </c>
+      <c r="B494" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A495">
+        <v>874</v>
+      </c>
+      <c r="B495" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A496">
+        <v>466</v>
+      </c>
+      <c r="B496" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A497">
+        <v>713</v>
+      </c>
+      <c r="B497" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A498">
+        <v>488</v>
+      </c>
+      <c r="B498" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A499">
+        <v>724</v>
+      </c>
+      <c r="B499" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A500">
+        <v>213</v>
+      </c>
+      <c r="B500" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A501">
+        <v>491</v>
+      </c>
+      <c r="B501" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A502">
+        <v>163</v>
+      </c>
+      <c r="B502" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A503">
+        <v>837</v>
+      </c>
+      <c r="B503" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A504">
+        <v>360</v>
+      </c>
+      <c r="B504" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A505">
+        <v>362</v>
+      </c>
+      <c r="B505" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A506">
+        <v>830</v>
+      </c>
+      <c r="B506" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A507">
+        <v>1638</v>
+      </c>
+      <c r="B507" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A508">
+        <v>1639</v>
+      </c>
+      <c r="B508" s="5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A509">
+        <v>1640</v>
+      </c>
+      <c r="B509" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A510">
+        <v>1641</v>
+      </c>
+      <c r="B510" s="5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B85EAAC-ED19-4EE6-9497-5F77BA19F7C5}">
   <dimension ref="A1:H511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16210,12 +20287,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97DD7A7-8173-4CDC-B70A-D56870A4AF85}">
   <dimension ref="A1:C1641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
